--- a/15/Before_Soc_EEH2.xlsx
+++ b/15/Before_Soc_EEH2.xlsx
@@ -17,69 +17,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>ГО</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
-    <t>ГЗ_end</t>
+    <t>1</t>
   </si>
   <si>
-    <t>Extract per1 SetValue_Start</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Extract per3 SetValue_Start</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Extract per5 SetValue_Start</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Extract per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract end</t>
-  </si>
-  <si>
-    <t>Show res of Extract</t>
-  </si>
-  <si>
-    <t>Contrib per1 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per2 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per4 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Contrib per5 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per1 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per2 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Extract per2 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per3 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Extract per4 SetValue_Start</t>
-  </si>
-  <si>
-    <t>Extract per4 ShowRes_Start</t>
-  </si>
-  <si>
-    <t>Contrib per3 SetValue_Start</t>
-  </si>
-  <si>
-    <t>ShowGain</t>
+    <t>5</t>
   </si>
   <si>
     <t>Григорик Николай</t>
@@ -476,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AH11"/>
+  <dimension ref="B1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,15 +442,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:42">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -501,90 +462,114 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C2" t="n">
         <v>0.8375301055479965</v>
@@ -593,66 +578,123 @@
         <v>7.274120421712171</v>
       </c>
       <c r="E2" t="n">
-        <v>5.04561420194149</v>
+        <v>26.15877989472641</v>
       </c>
       <c r="F2" t="n">
-        <v>1.011429822391476</v>
+        <v>2.042011556449898</v>
       </c>
       <c r="G2" t="n">
-        <v>1.021488444368643</v>
+        <v>1.014654828263599</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4242883185543775</v>
+        <v>0.2569547238917022</v>
       </c>
       <c r="I2" t="n">
-        <v>2.588888187265484</v>
+        <v>0.371754876701856</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4756151547154364</v>
+        <v>0.4648389820263717</v>
       </c>
       <c r="K2" t="n">
-        <v>1.175204490991483</v>
+        <v>0.497466656106058</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5396370852583732</v>
+        <v>0.2256334399909797</v>
       </c>
       <c r="M2" t="n">
-        <v>1.115555073498961</v>
+        <v>0.5983847694154276</v>
       </c>
       <c r="N2" t="n">
-        <v>0.806205435117221</v>
+        <v>0.4866039055489284</v>
       </c>
       <c r="O2" t="n">
-        <v>2.04262045648698</v>
+        <v>2.123755588509375</v>
       </c>
       <c r="P2" t="n">
-        <v>1.142693119342401</v>
+        <v>1.864274924462756</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.000198506341528</v>
+        <v>0.2200467022118563</v>
       </c>
       <c r="R2" t="n">
-        <v>1.643378655354027</v>
+        <v>0.1238010091011816</v>
       </c>
       <c r="S2" t="n">
-        <v>2.542266299696022</v>
+        <v>0.4181267188384581</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3530245803509702</v>
+        <v>0.5339774890328426</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8081736784988852</v>
+        <v>0.0950492459246</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5894233142305588</v>
+        <v>0.1912293058571994</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6799029681869184</v>
+        <v>5.932572004466051</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.219814197889153</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.073654901294971</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.021430436148405</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.4243104746602535</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>2.570900951160762</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.5075789098291147</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.142836771244534</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.5745266610457358</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.5247407994215797</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.8523297124257313</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.358343633674237</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1.229298987486817</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.779868336658249</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.9147030646680094</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2.86991700257554</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.3623438011118258</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.623387454711959</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.6240979247374873</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6812726458796896</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:42">
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0.06502304023662457</v>
@@ -661,66 +703,123 @@
         <v>0.9488052630762698</v>
       </c>
       <c r="E3" t="n">
-        <v>2.666329995786891</v>
+        <v>1.973758248716875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9127772176488691</v>
+        <v>3.450512970684355</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2184102473804815</v>
+        <v>7.797579152979354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3386266467860466</v>
+        <v>2.332330300032533</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4605376427767475</v>
+        <v>0.7695000228654731</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2907387501971212</v>
+        <v>0.6954165643880277</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3154667485754631</v>
+        <v>1.407575350292541</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3504699975283449</v>
+        <v>0.2210649609296863</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1648982888525548</v>
+        <v>0.1211556808383472</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3270801226598035</v>
+        <v>0.3729831935663627</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4751589311927419</v>
+        <v>0.6710488881428477</v>
       </c>
       <c r="P3" t="n">
-        <v>2.296748563003227</v>
+        <v>0.1994301833452975</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.740398267298858</v>
+        <v>0.5313692270891633</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6746187802395471</v>
+        <v>0.4909640088765403</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3353438729044532</v>
+        <v>0.2161588818711665</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3441272574518763</v>
+        <v>0.2204919705380982</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3584805435224872</v>
+        <v>0.08905751186324946</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2163012054123701</v>
+        <v>0.2422052203630999</v>
       </c>
       <c r="W3" t="n">
-        <v>0.28282112858443</v>
+        <v>1.576602297942018</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.119028809961674</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.005355371422626</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2474099424744978</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2842131028877772</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.5028174886796432</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2910574957933366</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.1341592646517601</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.3637354688834077</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.1795908971628674</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2412868564453606</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.5217257903472746</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.5160333883328078</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>4.338018957802779</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.7695637069716276</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.3330602775176584</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.220257011044536</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.4119141528047875</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2264236816327767</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2828061669966661</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:42">
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0.1107798248642232</v>
@@ -729,66 +828,123 @@
         <v>0.835862354061063</v>
       </c>
       <c r="E4" t="n">
-        <v>1.817606990644569</v>
+        <v>1.751918400262984</v>
       </c>
       <c r="F4" t="n">
-        <v>0.431114301700365</v>
+        <v>0.5671528575712498</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3931370776866221</v>
+        <v>1.060823103848191</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1400743806318146</v>
+        <v>0.2072456690590909</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1120850944512853</v>
+        <v>0.2178157274474316</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1116863815780856</v>
+        <v>0.2933168057255253</v>
       </c>
       <c r="K4" t="n">
-        <v>0.134695533033961</v>
+        <v>0.4667978256505042</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1124892651436747</v>
+        <v>0.6328458414620293</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2392501775332237</v>
+        <v>0.1665388655454705</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2263412087094835</v>
+        <v>0.3637657377169206</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2819080648452941</v>
+        <v>0.5786523872890503</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1432926356309707</v>
+        <v>0.08987787168759651</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1502022124090679</v>
+        <v>0.1234450174308731</v>
       </c>
       <c r="R4" t="n">
-        <v>0.136139067181048</v>
+        <v>0.09660620448759098</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1028757997810712</v>
+        <v>0.09139243759102661</v>
       </c>
       <c r="T4" t="n">
-        <v>1.372908219811646</v>
+        <v>0.6230250124046811</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3402640201548092</v>
+        <v>3.635573929064527</v>
       </c>
       <c r="V4" t="n">
-        <v>0.402755068608041</v>
+        <v>2.873090535651125</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2843113508403894</v>
+        <v>0.8879855630691634</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.286965026403151</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.4651234451038663</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.4393219381503452</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1406179841575738</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.0997959621763138</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.1135998913059791</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1418028088311138</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.08326368723372025</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.248477438414498</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2196410303260043</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.3157601538919769</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.1421866279675451</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.1425014501690416</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.1389194305562008</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.1031340326718648</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.372659228332981</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2709306582677767</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.4088417810628878</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.3027319601536891</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:42">
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>0.08144443302580275</v>
@@ -797,66 +953,123 @@
         <v>0.2112586703345777</v>
       </c>
       <c r="E5" t="n">
-        <v>1.232361808990422</v>
+        <v>0.4236940250677518</v>
       </c>
       <c r="F5" t="n">
-        <v>1.739021284083709</v>
+        <v>0.1129556110695866</v>
       </c>
       <c r="G5" t="n">
-        <v>1.180451742084022</v>
+        <v>0.2118677711713962</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9558623128956982</v>
+        <v>0.1543335055700379</v>
       </c>
       <c r="I5" t="n">
-        <v>1.403102965913634</v>
+        <v>2.52829113962004</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09450935165549935</v>
+        <v>1.136222037855534</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0986711655588277</v>
+        <v>0.2391219961990219</v>
       </c>
       <c r="L5" t="n">
-        <v>0.143072014982897</v>
+        <v>0.212644868949972</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0982847763853594</v>
+        <v>0.5775657693371754</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2508200117678862</v>
+        <v>0.4189312633632098</v>
       </c>
       <c r="O5" t="n">
-        <v>0.255083801666398</v>
+        <v>0.2913272937327395</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1466434832362321</v>
+        <v>0.2291435970677666</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1257104828798424</v>
+        <v>2.067215597974011</v>
       </c>
       <c r="R5" t="n">
-        <v>1.751183135664052</v>
+        <v>1.574722305251576</v>
       </c>
       <c r="S5" t="n">
-        <v>2.665201991455612</v>
+        <v>0.09819747652196796</v>
       </c>
       <c r="T5" t="n">
-        <v>1.121396974728721</v>
+        <v>0.8308500760204595</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8477931966909227</v>
+        <v>1.097448777589822</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7304671231983748</v>
+        <v>0.4550384783042155</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1620743749067774</v>
+        <v>1.500151534908135</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.207220887535529</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.904361587391439</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1.18874724456977</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.7573801108164362</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.542046755536373</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.09451168236631891</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.08832054556638924</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.1435310532506155</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.09645694239724611</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.2339748820753866</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.2918588804030292</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.1516845944330496</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.1337540932936819</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.097746748675492</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>3.00896607995482</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.130657045391908</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.228567630077891</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.8185325881968336</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.1622204034389181</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:42">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>0.3185678233746354</v>
@@ -865,66 +1078,123 @@
         <v>4.674607715514807</v>
       </c>
       <c r="E6" t="n">
-        <v>7.54279438700683</v>
+        <v>8.168373508712108</v>
       </c>
       <c r="F6" t="n">
-        <v>10.99227835111906</v>
+        <v>2.691893407583891</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7135767257896526</v>
+        <v>9.292950457225723</v>
       </c>
       <c r="H6" t="n">
-        <v>1.213184221485964</v>
+        <v>1.765166619848756</v>
       </c>
       <c r="I6" t="n">
-        <v>1.281892975522385</v>
+        <v>1.40966483935568</v>
       </c>
       <c r="J6" t="n">
-        <v>1.507076834620538</v>
+        <v>5.833323500139311</v>
       </c>
       <c r="K6" t="n">
-        <v>2.228749063891652</v>
+        <v>15.79517552404439</v>
       </c>
       <c r="L6" t="n">
-        <v>1.771545878391819</v>
+        <v>2.085024109123189</v>
       </c>
       <c r="M6" t="n">
-        <v>2.490271520851854</v>
+        <v>0.274882825049409</v>
       </c>
       <c r="N6" t="n">
-        <v>1.394084050280621</v>
+        <v>1.614229365050012</v>
       </c>
       <c r="O6" t="n">
-        <v>3.816303554855535</v>
+        <v>1.665848931349078</v>
       </c>
       <c r="P6" t="n">
-        <v>1.173067854623761</v>
+        <v>1.577103002579198</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.100690227536008</v>
+        <v>0.5495776289907093</v>
       </c>
       <c r="R6" t="n">
-        <v>2.940888429291095</v>
+        <v>0.9407555410999957</v>
       </c>
       <c r="S6" t="n">
-        <v>6.851673112423775</v>
+        <v>15.84854962055463</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7251248398635817</v>
+        <v>9.310100685116002</v>
       </c>
       <c r="U6" t="n">
-        <v>3.258985779306752</v>
+        <v>12.07969810903427</v>
       </c>
       <c r="V6" t="n">
-        <v>6.955875305158979</v>
+        <v>9.821102022246082</v>
       </c>
       <c r="W6" t="n">
-        <v>1.227738716207982</v>
+        <v>9.821272680489734</v>
+      </c>
+      <c r="X6" t="n">
+        <v>22.07668736757209</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12.92139867903145</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.7159458318458826</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.138982287334634</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.249807979238271</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.522608111546363</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.685509660947146</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.866089862950413</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2.729910898156558</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.057682854876943</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>4.431533107761618</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1.201013068957251</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.216454635493523</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.6854920982286975</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>8.499064249858455</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.7251516377423418</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.603130326187586</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.074513123714279</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.386683158422449</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>0.05892845641899536</v>
@@ -933,66 +1203,123 @@
         <v>2.681102305118763</v>
       </c>
       <c r="E7" t="n">
-        <v>2.142074359336953</v>
+        <v>3.862768176571962</v>
       </c>
       <c r="F7" t="n">
-        <v>2.091494416418121</v>
+        <v>1.214963534236851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.402582432355977</v>
+        <v>0.1379887701178932</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3458355975370256</v>
+        <v>0.09143278247431613</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1828398056825229</v>
+        <v>0.1080970943242816</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1775591338023684</v>
+        <v>0.367905588466137</v>
       </c>
       <c r="K7" t="n">
-        <v>1.824346948908521</v>
+        <v>0.2611540579741292</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3021116437717382</v>
+        <v>2.022501740084077</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5825950524233316</v>
+        <v>2.985221345440825</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3766479279771781</v>
+        <v>1.726738443428529</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8230286149150222</v>
+        <v>2.922962629053764</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0694867922965421</v>
+        <v>0.4303966842968359</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1019486999040537</v>
+        <v>0.6671540090219586</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4659140854177419</v>
+        <v>0.542197695075966</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09711571587907392</v>
+        <v>0.05410843937282665</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07226592416200706</v>
+        <v>0.5572367205252109</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1197869595936059</v>
+        <v>0.9232509367512067</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09395231941701924</v>
+        <v>0.2615177371709668</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1282390252912407</v>
+        <v>0.4030965398851865</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.3762448043372084</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.325535241509911</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.09799069995598969</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.3725015505148445</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1282695708903419</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.1915097347254278</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.823750218909137</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.2996139063775341</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.5833096342810802</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.2618222712857459</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.8506204400363642</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.06838936088771748</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.07166213148427791</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.4659250645788195</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.09626934601280927</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0695112500838125</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.1110412447261566</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.09751624511491201</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.1300529430221558</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:42">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>0.2946394969300086</v>
@@ -1001,66 +1328,123 @@
         <v>2.111371927762123</v>
       </c>
       <c r="E8" t="n">
-        <v>8.015579560841536</v>
+        <v>14.20946114642863</v>
       </c>
       <c r="F8" t="n">
-        <v>1.597434981727761</v>
+        <v>11.11313056025361</v>
       </c>
       <c r="G8" t="n">
-        <v>4.022082169532943</v>
+        <v>35.71772407527421</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38690054235793</v>
+        <v>2.063727266269549</v>
       </c>
       <c r="I8" t="n">
-        <v>4.649258307593198</v>
+        <v>1.042743052210793</v>
       </c>
       <c r="J8" t="n">
-        <v>1.60346949512201</v>
+        <v>0.7830851234528923</v>
       </c>
       <c r="K8" t="n">
-        <v>1.738848659790114</v>
+        <v>0.8157011843470677</v>
       </c>
       <c r="L8" t="n">
-        <v>2.742161896391074</v>
+        <v>1.629568146214488</v>
       </c>
       <c r="M8" t="n">
-        <v>5.352597092640313</v>
+        <v>0.9761725931627879</v>
       </c>
       <c r="N8" t="n">
-        <v>1.269324557523861</v>
+        <v>3.380680911128678</v>
       </c>
       <c r="O8" t="n">
-        <v>6.252026244490909</v>
+        <v>11.62194565584324</v>
       </c>
       <c r="P8" t="n">
-        <v>5.468285529666399</v>
+        <v>8.067645305283706</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.165624586901274</v>
+        <v>6.095779092063681</v>
       </c>
       <c r="R8" t="n">
-        <v>1.398878383257265</v>
+        <v>3.991376267700284</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9640555090056342</v>
+        <v>7.995869646592356</v>
       </c>
       <c r="T8" t="n">
-        <v>2.143813778676709</v>
+        <v>6.187118023095692</v>
       </c>
       <c r="U8" t="n">
-        <v>1.135400601056032</v>
+        <v>4.782402975967434</v>
       </c>
       <c r="V8" t="n">
-        <v>1.733044422474923</v>
+        <v>3.691481472925886</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8166562683003634</v>
+        <v>12.37976913846646</v>
+      </c>
+      <c r="X8" t="n">
+        <v>23.68409046862525</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.017405676132212</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.897537784418365</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.600728294172944</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4.603965369069456</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.574840774989859</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.970828477301406</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.459834930988569</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6.512167299241176</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.276985162836742</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>3.718093496851983</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6.232172381140757</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>3.193316434070705</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.550567847034798</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.9109023642812608</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.145134365890073</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.19117663802713</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.725521169718322</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.8828442191544145</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:42">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>0.06314164925355498</v>
@@ -1069,66 +1453,123 @@
         <v>0.202888860344663</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4313108368391529</v>
+        <v>1.0124366583424</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2080129876186124</v>
+        <v>0.1760555547798455</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1032419437493276</v>
+        <v>0.2716790965286292</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0952624752600747</v>
+        <v>0.1949271064635474</v>
       </c>
       <c r="I9" t="n">
-        <v>0.162499109468868</v>
+        <v>0.3056243681851253</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1235598451903629</v>
+        <v>0.1501957572440235</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2284491758387311</v>
+        <v>0.4043060577199458</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1813245492519235</v>
+        <v>0.3342543992362587</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1799036278133831</v>
+        <v>0.333972589691144</v>
       </c>
       <c r="N9" t="n">
-        <v>2.069137742363259</v>
+        <v>0.2869150561261362</v>
       </c>
       <c r="O9" t="n">
-        <v>4.482011799498467</v>
+        <v>0.2104898735418227</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1220895385487046</v>
+        <v>0.1819157373796378</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1679244488006864</v>
+        <v>0.2613407716240824</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1850791620609617</v>
+        <v>0.2548713100229029</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2314635554331524</v>
+        <v>0.3868853644726997</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1307641540673173</v>
+        <v>0.4275347016827377</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2442085317355139</v>
+        <v>0.7298110749576205</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2305286231667246</v>
+        <v>0.2295978624257289</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1836412069032687</v>
+        <v>0.551407035608117</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.6464896125190478</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.2315009880586607</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.1035576268894537</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.07655328333045359</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.1684197069395744</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.1217318040361985</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1785691401048477</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.192380902613953</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.1935343381194661</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.066139252106691</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5.156725946089358</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.1113769004089604</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.129055423900297</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.1844340034187934</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.2476688914159701</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.1329945150029442</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.1383267076684823</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.2354053434295953</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.2017120345758028</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:42">
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>0.1601160806529732</v>
@@ -1137,66 +1578,123 @@
         <v>0.6484358486426968</v>
       </c>
       <c r="E10" t="n">
-        <v>4.45393851244584</v>
+        <v>1.110298319252299</v>
       </c>
       <c r="F10" t="n">
-        <v>2.022168057959449</v>
+        <v>1.201658691783202</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9306923618062877</v>
+        <v>0.8839613317383695</v>
       </c>
       <c r="H10" t="n">
-        <v>1.536243953123302</v>
+        <v>0.797763338060554</v>
       </c>
       <c r="I10" t="n">
-        <v>0.66123152730907</v>
+        <v>0.5473572388931821</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7430637958654275</v>
+        <v>0.8844945226335902</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7132445391675919</v>
+        <v>0.6734356364780982</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3886424297768057</v>
+        <v>0.8029991317779592</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7930982045349033</v>
+        <v>0.4953733921096897</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9922787469658886</v>
+        <v>0.8237354292289091</v>
       </c>
       <c r="O10" t="n">
-        <v>1.054227377348514</v>
+        <v>1.230946709251877</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5782654405544724</v>
+        <v>0.8561173342831812</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8295127305907593</v>
+        <v>0.6334498354964163</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5096283049762728</v>
+        <v>2.80475860237888</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7580971228308768</v>
+        <v>1.098206593860184</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7008177942815254</v>
+        <v>1.174597707713239</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6513522689001809</v>
+        <v>1.006407736855345</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6429190761474141</v>
+        <v>0.9807065366320632</v>
       </c>
       <c r="W10" t="n">
-        <v>1.056468167673294</v>
+        <v>11.57331943399372</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15.88134229380098</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.224023188305625</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.946091381886486</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.538290110075027</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.6650963693099943</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.7415316422117563</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.7269901467927421</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3879988088858342</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.7887432321929694</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.9581132382096043</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.172371787447428</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.5618500050427254</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.8491972772865153</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.5132443056915178</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.7584143761307901</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.700733414988575</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.6463423130799657</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.5054260860936286</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>1.134816344626116</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:42">
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>0.06470452190298524</v>
@@ -1205,61 +1703,118 @@
         <v>2.547227743394807</v>
       </c>
       <c r="E11" t="n">
-        <v>2.047532016365044</v>
+        <v>4.406391520729123</v>
       </c>
       <c r="F11" t="n">
-        <v>1.287766166602516</v>
+        <v>0.5133936642872042</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2875713717167051</v>
+        <v>0.3126699927610931</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1829863436130271</v>
+        <v>0.09997948105393194</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2402723665623734</v>
+        <v>0.07488996995497967</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1284138304044891</v>
+        <v>0.09422482310736661</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1571385180332987</v>
+        <v>0.666336027103496</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1726988409351976</v>
+        <v>0.5979585963586701</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1577902266431504</v>
+        <v>0.2888200695888627</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6875398696647705</v>
+        <v>0.3992054730772266</v>
       </c>
       <c r="O11" t="n">
-        <v>1.250993257019254</v>
+        <v>0.6408919634355192</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2764499177049111</v>
+        <v>0.4346261422889355</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.954084372886746</v>
+        <v>0.521624762107473</v>
       </c>
       <c r="R11" t="n">
-        <v>1.791463992283414</v>
+        <v>0.2852627711268533</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2832115372316382</v>
+        <v>0.759044878121343</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2007809151781406</v>
+        <v>0.7347993274799464</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1302044344521513</v>
+        <v>0.3922145768684966</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1781245228659592</v>
+        <v>0.4977310104781544</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06562413207678422</v>
+        <v>3.062201087427312</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4.686087779751956</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.409460150043155</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.3222420115958321</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.1691574345380553</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.2609037639790671</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.129570643156241</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.1292405878947052</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1722428255697767</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.1707022836010669</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.2218407550504224</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.39677210464273</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.2617609683633494</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.3300331737615915</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.991301658867605</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.2594683858863522</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.2126664381233852</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.08144721408125875</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.1825648057420222</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.06614427266790728</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AH11"/>
+  <dimension ref="B1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,15 +1836,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:42">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1298,90 +1856,114 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C2" t="n">
         <v>4.09605207977434</v>
@@ -1390,66 +1972,123 @@
         <v>4.61481249960649</v>
       </c>
       <c r="E2" t="n">
-        <v>1.861566620640352</v>
+        <v>5.937026055005535</v>
       </c>
       <c r="F2" t="n">
-        <v>6.721430983107106</v>
+        <v>3.732525717766885</v>
       </c>
       <c r="G2" t="n">
+        <v>5.312960840409201</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.997636991494484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.034771663013129</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.381765646738198</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.887730176352798</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.73753591840629</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7.171730716606397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.890645282309115</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.017283511345676</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.511520334524168</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.393401027489391</v>
+      </c>
+      <c r="R2" t="n">
+        <v>9.002734150550253</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.655720925052216</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6.799413900721876</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8.124842412863527</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8.562165548298507</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.492453690746756</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.777134401931736</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>6.723364237494589</v>
+      </c>
+      <c r="Z2" t="n">
         <v>7.337049778453973</v>
       </c>
-      <c r="H2" t="n">
+      <c r="AA2" t="n">
         <v>8.046385849775595</v>
       </c>
-      <c r="I2" t="n">
-        <v>6.234016364283817</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="AB2" t="n">
+        <v>6.216356829013538</v>
+      </c>
+      <c r="AC2" t="n">
         <v>8.136059486608657</v>
       </c>
-      <c r="K2" t="n">
-        <v>7.078308525446465</v>
-      </c>
-      <c r="L2" t="n">
-        <v>8.434405298855966</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5.850295796515793</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="AD2" t="n">
+        <v>7.09263639432269</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8.6281975508256</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5.945533891753888</v>
+      </c>
+      <c r="AG2" t="n">
         <v>6.665381595775226</v>
       </c>
-      <c r="O2" t="n">
-        <v>5.501634268363786</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="AH2" t="n">
+        <v>5.959468598316973</v>
+      </c>
+      <c r="AI2" t="n">
         <v>7.507557129122763</v>
       </c>
-      <c r="Q2" t="n">
-        <v>6.727160552898232</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7.936093953285915</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="AJ2" t="n">
+        <v>6.812630638368313</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>8.322319195076309</v>
+      </c>
+      <c r="AL2" t="n">
         <v>6.892196319941478</v>
       </c>
-      <c r="T2" t="n">
-        <v>8.071597401834769</v>
-      </c>
-      <c r="U2" t="n">
-        <v>6.828693367127848</v>
-      </c>
-      <c r="V2" t="n">
-        <v>7.725446473345777</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="AM2" t="n">
+        <v>8.151446340415728</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6.861213692331098</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7.724569631707754</v>
+      </c>
+      <c r="AP2" t="n">
         <v>6.980094465576386</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:42">
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>10.30212804227806</v>
@@ -1458,66 +2097,123 @@
         <v>6.943179655843307</v>
       </c>
       <c r="E3" t="n">
-        <v>2.966396073525851</v>
+        <v>5.766416045106873</v>
       </c>
       <c r="F3" t="n">
-        <v>6.160697056614681</v>
+        <v>5.296519234565697</v>
       </c>
       <c r="G3" t="n">
-        <v>6.946686205383152</v>
+        <v>4.975664182757184</v>
       </c>
       <c r="H3" t="n">
-        <v>8.162327463545475</v>
+        <v>5.865984904749871</v>
       </c>
       <c r="I3" t="n">
-        <v>7.11623401804535</v>
+        <v>6.728024255286223</v>
       </c>
       <c r="J3" t="n">
+        <v>6.270302571471772</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.17807903210908</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.806299282645082</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.61860752235574</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.25867135095854</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7.232799765456574</v>
+      </c>
+      <c r="P3" t="n">
+        <v>8.567393023904136</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.941932532192699</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7.998026743656087</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7.685579324295305</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8.507205076930411</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.768184324776914</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8.194225983054769</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.484765358810456</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.450014322077943</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6.434619933552257</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6.881351224023723</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>8.882746782858984</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.198193470559316</v>
+      </c>
+      <c r="AC3" t="n">
         <v>8.82287453666517</v>
       </c>
-      <c r="K3" t="n">
-        <v>6.793316137900911</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8.627391448870229</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6.840739615817211</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8.107274329909426</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7.54422722601621</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6.594986684065605</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.937340541145398</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.935772891594531</v>
-      </c>
-      <c r="S3" t="n">
-        <v>8.283393885476693</v>
-      </c>
-      <c r="T3" t="n">
-        <v>7.620549188466854</v>
-      </c>
-      <c r="U3" t="n">
-        <v>7.74227065075624</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8.545957356346623</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="AD3" t="n">
+        <v>6.810707442248738</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>8.62625403588723</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6.823498236506866</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8.539108775687138</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.558056224403033</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>7.726821005852546</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6.159803288591718</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>6.786808365369306</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8.23570394185527</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7.972140159802123</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7.827494948517151</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>8.558565799851037</v>
+      </c>
+      <c r="AP3" t="n">
         <v>6.523561956057027</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:42">
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>9.526932777134816</v>
@@ -1526,66 +2222,123 @@
         <v>5.667526285808331</v>
       </c>
       <c r="E4" t="n">
-        <v>3.435530569997455</v>
+        <v>7.623372905043028</v>
       </c>
       <c r="F4" t="n">
-        <v>8.659004718513584</v>
+        <v>7.296716935165417</v>
       </c>
       <c r="G4" t="n">
-        <v>6.706359616161779</v>
+        <v>6.319474882471934</v>
       </c>
       <c r="H4" t="n">
+        <v>8.937798021868248</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.298114024659281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.231667412716748</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.058312984969951</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.565771515649773</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.082813763746291</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.336846532020838</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7.207073613969008</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.00077083805456</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7.018155825964931</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8.656467358501706</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.704721708142301</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6.547658981701402</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.03808452141591</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.324685518669592</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.055388836400855</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5.984161640474291</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8.921826449388814</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6.734577985708183</v>
+      </c>
+      <c r="AA4" t="n">
         <v>9.375344983802641</v>
       </c>
-      <c r="I4" t="n">
-        <v>7.46760555008301</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.236587863244891</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="AB4" t="n">
+        <v>7.456306115054761</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.315591204156043</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6.202152023829224</v>
       </c>
-      <c r="L4" t="n">
-        <v>8.691780316296237</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="AE4" t="n">
+        <v>8.798712875700829</v>
+      </c>
+      <c r="AF4" t="n">
         <v>6.338802700843589</v>
       </c>
-      <c r="N4" t="n">
-        <v>8.903699983615066</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="AG4" t="n">
+        <v>9.246162017308539</v>
+      </c>
+      <c r="AH4" t="n">
         <v>6.523561956057027</v>
       </c>
-      <c r="P4" t="n">
-        <v>9.445124391128779</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.237414727854902</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9.749745184644699</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="AI4" t="n">
+        <v>9.458734031603214</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7.250317953661354</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>9.744500072146868</v>
+      </c>
+      <c r="AL4" t="n">
         <v>6.62935662007962</v>
       </c>
-      <c r="T4" t="n">
-        <v>6.744437527488009</v>
-      </c>
-      <c r="U4" t="n">
-        <v>6.543295834054494</v>
-      </c>
-      <c r="V4" t="n">
-        <v>8.447315662997692</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="AM4" t="n">
+        <v>6.74023584681574</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.584962500721161</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.546809560861107</v>
+      </c>
+      <c r="AP4" t="n">
         <v>6.39231742277876</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:42">
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>10.20830524856093</v>
@@ -1594,66 +2347,123 @@
         <v>8.35997851741662</v>
       </c>
       <c r="E5" t="n">
-        <v>2.814767585407715</v>
+        <v>7.445741723983863</v>
       </c>
       <c r="F5" t="n">
-        <v>6.784464079490229</v>
+        <v>9.924011724648825</v>
       </c>
       <c r="G5" t="n">
-        <v>6.164643424568228</v>
+        <v>7.175877449785828</v>
       </c>
       <c r="H5" t="n">
-        <v>5.244464333293209</v>
+        <v>9.513471163509063</v>
       </c>
       <c r="I5" t="n">
-        <v>7.145317918676019</v>
+        <v>6.916953404455128</v>
       </c>
       <c r="J5" t="n">
-        <v>9.582572641849657</v>
+        <v>5.865558071251757</v>
       </c>
       <c r="K5" t="n">
-        <v>7.477746439569363</v>
+        <v>6.875</v>
       </c>
       <c r="L5" t="n">
+        <v>8.400691673999665</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.727075785468086</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.363888140897814</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7.69434257572635</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.082659457373527</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4.43338455838722</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.118987210211264</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8.506383845286082</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.513305001024658</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5.409812899987166</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7.671656989782652</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.881575358463445</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5.855452083152359</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.721639672441664</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.472801814604861</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6.345683070820472</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.085319486948807</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.582572641849659</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.499845887083174</v>
+      </c>
+      <c r="AE5" t="n">
         <v>9.112705371245362</v>
       </c>
-      <c r="M5" t="n">
-        <v>6.6724253419715</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8.940431308756146</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8.071643306320594</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7.871395560296383</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="AF5" t="n">
+        <v>6.652817498834245</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.125660181278866</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.024252400983414</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.879694315483106</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>7.962754233632467</v>
       </c>
-      <c r="R5" t="n">
-        <v>3.850096742280544</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4.61810136948927</v>
-      </c>
-      <c r="T5" t="n">
-        <v>8.469032151874814</v>
-      </c>
-      <c r="U5" t="n">
-        <v>6.897812121041722</v>
-      </c>
-      <c r="V5" t="n">
-        <v>8.045603576100138</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="AK5" t="n">
+        <v>7.978667162349067</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.823896292694633</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>8.464380989084116</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7.286729870981138</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7.947890760781364</v>
+      </c>
+      <c r="AP5" t="n">
         <v>6.686500527183236</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:42">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>9.107315950044967</v>
@@ -1662,66 +2472,123 @@
         <v>4.179032480176255</v>
       </c>
       <c r="E6" t="n">
-        <v>2.800254908028379</v>
+        <v>6.173019521926754</v>
       </c>
       <c r="F6" t="n">
-        <v>6.960011569473977</v>
+        <v>4.874799042058879</v>
       </c>
       <c r="G6" t="n">
+        <v>3.427132925720019</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.863578884484173</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.323859468568568</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.136914079901942</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.908181809960501</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.191457731206911</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.554588851677623</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.158577675773243</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.136258810665876</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.164549265847997</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.089435746215817</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.147140729903002</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.601176437607372</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.082051413879308</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.770344900712084</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.158641505401061</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.655518739874107</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.228466467939107</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6.962329066577106</v>
+      </c>
+      <c r="Z6" t="n">
         <v>7.891365711603806</v>
       </c>
-      <c r="H6" t="n">
-        <v>8.195102955225737</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.65726104337034</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.610575820935938</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.677375937413004</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.689687181642181</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6.397462500721161</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.207060884991314</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.732589199903741</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6.275554907601321</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6.350943045804764</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.226250905579374</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.893746590821209</v>
-      </c>
-      <c r="T6" t="n">
-        <v>7.170098443891507</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6.627106247579093</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5.494753648360971</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.846434001932581</v>
+      <c r="AA6" t="n">
+        <v>8.457117726107928</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.078121492492123</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.784147809857103</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.817739047221872</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.639845386929042</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.459962500721161</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.858349310548915</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.157197090657127</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.302998707878268</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>6.375039431346932</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7.264758328298003</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>4.893746590821208</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>7.172098443891507</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>7.243994881088075</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.492753648360971</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>5.825178092701178</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>10.17272922480467</v>
@@ -1730,66 +2597,123 @@
         <v>4.547662207429654</v>
       </c>
       <c r="E7" t="n">
-        <v>2.531736556108868</v>
+        <v>6.414492813560403</v>
       </c>
       <c r="F7" t="n">
-        <v>4.081990976029619</v>
+        <v>4.275365023126485</v>
       </c>
       <c r="G7" t="n">
-        <v>6.631315236232916</v>
+        <v>6.885805386034932</v>
       </c>
       <c r="H7" t="n">
-        <v>7.164941488734309</v>
+        <v>9.583923865907563</v>
       </c>
       <c r="I7" t="n">
-        <v>7.478954118521266</v>
+        <v>7.214426893629114</v>
       </c>
       <c r="J7" t="n">
+        <v>7.031296555604235</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.791532619454981</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.625707701438713</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.095831486637342</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.384017955168106</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.636510470514396</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.095086717309854</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.636604953531957</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7.034134230092561</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8.339621849674884</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.765855467044185</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5.398185529056525</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6.51610433320174</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.096889243508111</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.248552501149815</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.957156015758651</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.256404188382069</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.164941488734308</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.953509273811111</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.723252117066224</v>
       </c>
-      <c r="K7" t="n">
+      <c r="AD7" t="n">
         <v>5.836056989456235</v>
       </c>
-      <c r="L7" t="n">
-        <v>7.617502465626904</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="AE7" t="n">
+        <v>7.740844455953606</v>
+      </c>
+      <c r="AF7" t="n">
         <v>5.302195994958159</v>
       </c>
-      <c r="N7" t="n">
-        <v>6.444838288388006</v>
-      </c>
-      <c r="O7" t="n">
-        <v>5.429835062142065</v>
-      </c>
-      <c r="P7" t="n">
-        <v>8.56502876865666</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6.517653434763951</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="AG7" t="n">
+        <v>7.223240902761086</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5.449545446101911</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.59532541355491</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6.539158811108037</v>
+      </c>
+      <c r="AK7" t="n">
         <v>7.718355281528893</v>
       </c>
-      <c r="S7" t="n">
-        <v>7.268805076872366</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8.984762870033281</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6.780258435217385</v>
-      </c>
-      <c r="V7" t="n">
-        <v>8.671127251140756</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AL7" t="n">
+        <v>7.29364979736926</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>8.995801547530409</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6.832890014164754</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.718336561311215</v>
+      </c>
+      <c r="AP7" t="n">
         <v>7.640373486147885</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:42">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>9.577932667498736</v>
@@ -1798,66 +2722,123 @@
         <v>6.178482258298816</v>
       </c>
       <c r="E8" t="n">
-        <v>3.134370896642261</v>
+        <v>5.438275741106683</v>
       </c>
       <c r="F8" t="n">
-        <v>8.033355503748327</v>
+        <v>2.487868449761456</v>
       </c>
       <c r="G8" t="n">
-        <v>7.138384999249223</v>
+        <v>5.415725465956823</v>
       </c>
       <c r="H8" t="n">
-        <v>8.884486722800547</v>
+        <v>7.560499862361523</v>
       </c>
       <c r="I8" t="n">
-        <v>7.417982535094779</v>
+        <v>7.228358420752135</v>
       </c>
       <c r="J8" t="n">
-        <v>8.208052375652718</v>
+        <v>8.338465637919622</v>
       </c>
       <c r="K8" t="n">
+        <v>7.036771934827619</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.752184169686089</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.768184324776914</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.827436949346828</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.247722617387742</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.43639541126546</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.67947302145218</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4.877970631723441</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.801564482911555</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.587524413478505</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.287805565893077</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8.285759265532816</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.261786494634168</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.350262382509889</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.617608677671228</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7.207142441479201</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.810395630029189</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.492127698422235</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.254343067420974</v>
+      </c>
+      <c r="AD8" t="n">
         <v>6.938067278128797</v>
       </c>
-      <c r="L8" t="n">
-        <v>8.250510580412881</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="AE8" t="n">
+        <v>8.896248161046692</v>
+      </c>
+      <c r="AF8" t="n">
         <v>6.603046710098019</v>
       </c>
-      <c r="N8" t="n">
-        <v>8.94832172490306</v>
-      </c>
-      <c r="O8" t="n">
-        <v>7.416815165018654</v>
-      </c>
-      <c r="P8" t="n">
-        <v>7.71010898697351</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="AG8" t="n">
+        <v>8.859671049342172</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.66845514574106</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>7.723959340022336</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>6.749835700923703</v>
       </c>
-      <c r="R8" t="n">
-        <v>8.205257597766632</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7.197347854313527</v>
-      </c>
-      <c r="T8" t="n">
-        <v>8.67067411990268</v>
-      </c>
-      <c r="U8" t="n">
-        <v>6.297079327540665</v>
-      </c>
-      <c r="V8" t="n">
-        <v>8.409036162170194</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="AK8" t="n">
+        <v>8.193861586370625</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>7.356603137064504</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>8.662212487945359</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6.368507898969236</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8.449260733404589</v>
+      </c>
+      <c r="AP8" t="n">
         <v>7.631151193666502</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:42">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>10.33398144057118</v>
@@ -1866,66 +2847,123 @@
         <v>8.450784653995749</v>
       </c>
       <c r="E9" t="n">
-        <v>6.423836451033906</v>
+        <v>7.702024009257268</v>
       </c>
       <c r="F9" t="n">
-        <v>9.28369581092476</v>
+        <v>9.384013668618074</v>
       </c>
       <c r="G9" t="n">
+        <v>8.516758293049401</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.438033545356372</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.531603986463909</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.421987862894563</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.368125219818348</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.87686020618308</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.82823237377149</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.414601216737196</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7.59228419276055</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8.859505463486558</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6.825164052322346</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.34852286866716</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.235471433179642</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.883063794264404</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.088903346243403</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.458000811787469</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.42161150373852</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.458844170826591</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.324608617932189</v>
+      </c>
+      <c r="Z9" t="n">
         <v>8.405496826118064</v>
       </c>
-      <c r="H9" t="n">
-        <v>9.808102179530682</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.650271722205951</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.039951093215469</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="AA9" t="n">
+        <v>9.910639739012595</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.727952409133142</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.056175014653039</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6.741466986401138</v>
       </c>
-      <c r="L9" t="n">
-        <v>8.931176903734428</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7.285174565635929</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.307388402379512</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3.022171754835684</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8.944021690692226</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8.847513446984038</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="AE9" t="n">
+        <v>8.925929196064814</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.297079327540692</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5.098945943304424</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>3.017152606079474</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.055809725820886</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8.97986622985446</v>
+      </c>
+      <c r="AK9" t="n">
         <v>9.554673266150399</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AL9" t="n">
         <v>8.237712781941907</v>
       </c>
-      <c r="T9" t="n">
-        <v>9.703215859631728</v>
-      </c>
-      <c r="U9" t="n">
-        <v>7.017556337791595</v>
-      </c>
-      <c r="V9" t="n">
-        <v>9.307666279222378</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8.399581100288403</v>
+      <c r="AM9" t="n">
+        <v>9.72695119712524</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7.076815597050856</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.361450535851144</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>8.384318565650378</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:42">
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>10.35885160058247</v>
@@ -1934,66 +2972,123 @@
         <v>7.642364742038698</v>
       </c>
       <c r="E10" t="n">
-        <v>3.534145585570113</v>
+        <v>7.691166125498746</v>
       </c>
       <c r="F10" t="n">
+        <v>7.715862943670388</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.294776030009508</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8.252953045145944</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.547496075165944</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.548175457504705</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.775437392739166</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.701230005757777</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8.574543966170362</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.031458730918088</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7.619188596908313</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7.792888039319201</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>7.266657627275968</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.265781736364119</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.711132205784444</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7.248330378790898</v>
+      </c>
+      <c r="U10" t="n">
+        <v>7.20297956599953</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7.660480401952826</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.909297246676745</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.432331788055864</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.227549235289724</v>
       </c>
-      <c r="G10" t="n">
-        <v>8.04917774484429</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="Z10" t="n">
+        <v>8.050299369387677</v>
+      </c>
+      <c r="AA10" t="n">
         <v>7.929097923043726</v>
       </c>
-      <c r="I10" t="n">
-        <v>8.467125404707676</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="AB10" t="n">
+        <v>8.456895225679544</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8.702193043610531</v>
       </c>
-      <c r="K10" t="n">
-        <v>6.889412234818559</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8.642176366023966</v>
-      </c>
-      <c r="M10" t="n">
-        <v>7.575481019254882</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.899344993553865</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.863187345459846</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8.666754541818522</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="AD10" t="n">
+        <v>6.825309670715994</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8.619809112599663</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7.560037003810866</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.124253616627716</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.898901631174132</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8.805594902709435</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>7.262838583678951</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AK10" t="n">
         <v>8.326690858762175</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AL10" t="n">
         <v>7.200853351567265</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AM10" t="n">
         <v>8.845864209481725</v>
       </c>
-      <c r="U10" t="n">
-        <v>7.919841289497803</v>
-      </c>
-      <c r="V10" t="n">
-        <v>8.568700892548582</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.831420617705005</v>
+      <c r="AN10" t="n">
+        <v>7.927873418011858</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.750384850615731</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>6.846619694929774</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:42">
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>10.28024634074894</v>
@@ -2002,60 +3097,117 @@
         <v>3.552577859442168</v>
       </c>
       <c r="E11" t="n">
-        <v>1.343945507489742</v>
+        <v>4.894081181889581</v>
       </c>
       <c r="F11" t="n">
+        <v>6.459240160952525</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.022144078577011</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.474197064915282</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.798729670500176</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.753061851456776</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.512612253392191</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.78493176010667</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.619697563812829</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.272829681034033</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.69947748800362</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7.482391447105265</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.361978631783898</v>
+      </c>
+      <c r="R11" t="n">
+        <v>8.581319574124784</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.359190089508208</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6.237662078759055</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6.824042679845831</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.562796371012017</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.499426634414641</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.099139129254873</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.161600297697108</v>
       </c>
-      <c r="G11" t="n">
-        <v>7.755890072585592</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9.473134839281544</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.873310553404748</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8.950819577478615</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.155399311574894</v>
-      </c>
-      <c r="L11" t="n">
-        <v>8.701080641435111</v>
-      </c>
-      <c r="M11" t="n">
-        <v>6.881557009694048</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.325015860398033</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6.313606540048321</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8.503092719642252</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.244235788556573</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5.118665802218111</v>
-      </c>
-      <c r="S11" t="n">
-        <v>7.095452762651155</v>
-      </c>
-      <c r="T11" t="n">
-        <v>8.900772887627152</v>
-      </c>
-      <c r="U11" t="n">
-        <v>7.712011042356979</v>
-      </c>
-      <c r="V11" t="n">
-        <v>8.30461423648045</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
+        <v>7.854004591833003</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9.662331079427455</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>7.860829351489992</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.942345800326896</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.14188579806138</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8.709688359471054</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>6.930737337562902</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.778652817843762</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.290878705876141</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.695616652836572</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.490759064443614</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5.480221708647628</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>7.240719160547147</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>8.821666257815695</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>7.800116769229222</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.302682024998115</v>
+      </c>
+      <c r="AP11" t="n">
         <v>6.794415866350121</v>
       </c>
     </row>
@@ -2070,7 +3222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AH11"/>
+  <dimension ref="B1:AP11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2078,15 +3230,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="C1" s="1" t="n">
+    <row r="1" spans="1:42">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2095,90 +3250,114 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C2" t="n">
         <v>0.7270373607642054</v>
@@ -2187,66 +3366,123 @@
         <v>0.641734425299433</v>
       </c>
       <c r="E2" t="n">
-        <v>0.550012216186156</v>
+        <v>0.5738070133867507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.648065484057932</v>
+        <v>0.5538904946602163</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7586960073219264</v>
+        <v>0.567123117475193</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7321252393839905</v>
+        <v>0.752249799785189</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7144994874184312</v>
+        <v>0.5801317965263844</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6669772186189145</v>
+        <v>0.7072166772931361</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7267913643230236</v>
+        <v>0.7286788220805152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6337720317666592</v>
+        <v>0.6606020930475744</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6540226238881053</v>
+        <v>0.7257192443253232</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6658276265437723</v>
+        <v>0.6094025859437986</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7206877021590015</v>
+        <v>0.6026220795542301</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6233946416582977</v>
+        <v>0.5561419700199105</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6451260528637291</v>
+        <v>0.7846057517626375</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5806854676149784</v>
+        <v>0.6707462291043228</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5771890558118101</v>
+        <v>0.7465908460540003</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6667632076542382</v>
+        <v>0.6937657956363786</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7046054666211442</v>
+        <v>0.6891296776962516</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6082806034293243</v>
+        <v>0.7059065378138891</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6637582778301662</v>
+        <v>0.6181670182813761</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.5519953348097888</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.6506472735072868</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.7605101928011462</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.7331722797148837</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.7229552155501173</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.671827578441074</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.7349322377320726</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.6365096742321343</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.6472441097651739</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.6697496103430528</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.7301757032988818</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.6312003991691879</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.6748494961833346</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.612016933655511</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.6206821646180323</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6626180107585616</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.7138860687193449</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.6283198827497791</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6773391306947764</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:42">
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>0.5955246107310348</v>
@@ -2255,66 +3491,123 @@
         <v>0.6379333211861822</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6721474530605851</v>
+        <v>0.5748816394957976</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5675231796727256</v>
+        <v>0.7685480892135569</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5767055328789386</v>
+        <v>0.577139653774279</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7210224580381012</v>
+        <v>0.7895112424147321</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5703275236841872</v>
+        <v>0.5154209498701893</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6633587806512504</v>
+        <v>0.6347202259765214</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6475075204433183</v>
+        <v>0.5806640411356033</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6896054587086778</v>
+        <v>0.566353984896862</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5768392946604455</v>
+        <v>0.5882555756304892</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6970682822593046</v>
+        <v>0.5744502749618731</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5688841350361379</v>
+        <v>0.5735345639021103</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7011610207292672</v>
+        <v>0.7003454309776271</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5767983334940786</v>
+        <v>0.6940237497739374</v>
       </c>
       <c r="R3" t="n">
-        <v>0.567249299878665</v>
+        <v>0.5636211169659153</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6654354699842083</v>
+        <v>0.6142201531588241</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5695882412810446</v>
+        <v>0.5670555737399605</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6184215940815339</v>
+        <v>0.6833006991295941</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6519129671938825</v>
+        <v>0.7287449553200893</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6874736247247613</v>
+        <v>0.6748279964709851</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5729285881649118</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.5934812662728781</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.6213282930021168</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.7201784605549513</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.6114843601779996</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6711467599567015</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.6450013238888532</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.6800248378978196</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.6231318582400877</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.6989931379115037</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.6091735761545999</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.7020074680477917</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.6218459065881893</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.6062565331522052</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.6782553065644426</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6085556444122994</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.6356116399484154</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.6669441328044635</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.6891417557812947</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:42">
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0.6494584528165832</v>
@@ -2323,66 +3616,123 @@
         <v>0.5839176214287028</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6034991946321614</v>
+        <v>0.5716908597074492</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5848146806377538</v>
+        <v>0.5861872556529286</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5791199056195396</v>
+        <v>0.5784201469000564</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6580853175906916</v>
+        <v>0.6197339515204932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6085389656582348</v>
+        <v>0.5752656933926508</v>
       </c>
       <c r="J4" t="n">
-        <v>0.579500627148656</v>
+        <v>0.6908858833091389</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5852045600064173</v>
+        <v>0.5709668718677905</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5878447190872546</v>
+        <v>0.6555266594731872</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6086293875980773</v>
+        <v>0.5787902482161205</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6731387671891449</v>
+        <v>0.6738425216319258</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5810930299047233</v>
+        <v>0.5739374955414656</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6053464253076919</v>
+        <v>0.617923929884872</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6264640421506865</v>
+        <v>0.6689458143877589</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6491448593593327</v>
+        <v>0.6724052833667405</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6652083564359058</v>
+        <v>0.6079603841988565</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6884380588495288</v>
+        <v>0.6452085171143469</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5819616325461211</v>
+        <v>0.5762565503910966</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7343841251044895</v>
+        <v>0.597285937662853</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5821933442517215</v>
+        <v>0.6478738968226964</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.5813649085659787</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.6036550733313395</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.6254040975362181</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.6582134750578176</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.6329969425136421</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.5975838984802742</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.6253550154826232</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5887516180208424</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.636118172398053</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.6740610226632711</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.6295162752904609</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.6111748306071848</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.6459916331201623</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.6488108369387344</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.6731040107165538</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.6867835498043754</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.6292183411086063</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.7297035390749206</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.628704252202463</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:42">
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>0.6585844648910064</v>
@@ -2391,66 +3741,123 @@
         <v>0.6212815061046844</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6736600104323336</v>
+        <v>0.5728945082921699</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5576113522492551</v>
+        <v>0.7302614271527301</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6124421506631783</v>
+        <v>0.5822611753495244</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5661541035474017</v>
+        <v>0.5817087273503769</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5674834058305076</v>
+        <v>0.7518878577271551</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6496221812843225</v>
+        <v>0.6687419036012175</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6246478482747628</v>
+        <v>0.584465317395649</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7227523031187059</v>
+        <v>0.7188055938030908</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5738263445193577</v>
+        <v>0.6602548831005721</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7435521930261155</v>
+        <v>0.5584772473031701</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5677283651033146</v>
+        <v>0.6159640081957445</v>
       </c>
       <c r="P5" t="n">
-        <v>0.571324346348108</v>
+        <v>0.5853230890595537</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5870222389494548</v>
+        <v>0.6005728759677283</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6916407424896842</v>
+        <v>0.5564088217973369</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5779423910299245</v>
+        <v>0.6692236644450971</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7164569584214198</v>
+        <v>0.7253180821064026</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6079292880435394</v>
+        <v>0.569069777274433</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5777959849271904</v>
+        <v>0.5850698492278821</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6522062928064311</v>
+        <v>0.5838445874448112</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5894867288643512</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.5910794006115125</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.6403242488308499</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5967735032287658</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.6069692525252386</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.6498682933957414</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.6277817253383007</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.7261256567000863</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.5997944120875144</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.7459176680934614</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.6058507358424968</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.6097838691046711</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.6173949495118632</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.6963926461574781</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.6235603828109765</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.7260595846588235</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.6348445033403201</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.6018993945807172</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.6628855229665722</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:42">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>0.6970892106934101</v>
@@ -2459,66 +3866,123 @@
         <v>0.6362474412391571</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5552730700481155</v>
+        <v>0.5631466426828852</v>
       </c>
       <c r="F6" t="n">
-        <v>0.557584209822944</v>
+        <v>0.7200779606450896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7640672138268039</v>
+        <v>0.5823625737373145</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7772255262180761</v>
+        <v>0.7159031632179892</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5793289486724128</v>
+        <v>0.5807970256184295</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7356762861294941</v>
+        <v>0.7129811793274706</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5801957514967067</v>
+        <v>0.5740162090818879</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5677904102179909</v>
+        <v>0.5586155404887353</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5827325304555049</v>
+        <v>0.5898436856525436</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6293896276163904</v>
+        <v>0.744549062745365</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5845170621092962</v>
+        <v>0.5715384873679693</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7310849608561677</v>
+        <v>0.7673629098426882</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5965669746819525</v>
+        <v>0.7150017885128892</v>
       </c>
       <c r="R6" t="n">
-        <v>0.690252760945125</v>
+        <v>0.694507685312059</v>
       </c>
       <c r="S6" t="n">
-        <v>0.57695996156147</v>
+        <v>0.6828501113755919</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7043715808313551</v>
+        <v>0.5563378954617153</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7176204631347369</v>
+        <v>0.7148790206329477</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6953579640754624</v>
+        <v>0.5563119111850678</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7025643199272057</v>
+        <v>0.6971712883156019</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5711989536632414</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.5912568529368544</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.7633263075237463</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.7771066541068403</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.6019095742334183</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.7285156601444038</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.6192255348165088</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.5973396423906039</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.6294041809360776</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.6275129090535138</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.6336679974545768</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.7264925935315191</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.6337650733302918</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.6951569606748005</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.6221696945044793</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.7096248496237126</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.7185863555042575</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.7006688201429228</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.6944739458280914</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:42">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>0.6135112703727719</v>
@@ -2527,66 +3991,123 @@
         <v>0.5912944657244764</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5452204268180458</v>
+        <v>0.5589702628106292</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5583309243030038</v>
+        <v>0.7158177105924934</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7069349167049322</v>
+        <v>0.528543325574787</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5652358133735901</v>
+        <v>0.7177741245351237</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6450843300712601</v>
+        <v>0.5992827460415733</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5754854048965335</v>
+        <v>0.770189159438263</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7345037395210227</v>
+        <v>0.6524877339580255</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7638852502580349</v>
+        <v>0.5650940041762371</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6886117843384933</v>
+        <v>0.57377246608455</v>
       </c>
       <c r="N7" t="n">
-        <v>0.718638007716938</v>
+        <v>0.7295002905272672</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6588757709319075</v>
+        <v>0.566507956976845</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7108024475614163</v>
+        <v>0.5817153812420001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6059924358735103</v>
+        <v>0.5835837785935925</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7838324055173129</v>
+        <v>0.562114195670857</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7168876561402555</v>
+        <v>0.6484789876022065</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6387954975222468</v>
+        <v>0.7101839732080173</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7292518233595755</v>
+        <v>0.6882045055939707</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6047006499725467</v>
+        <v>0.5558840172178215</v>
       </c>
       <c r="W7" t="n">
-        <v>0.750486302514168</v>
+        <v>0.7241632957787884</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.567925524620374</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.5925240437662644</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.7159236403477283</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.595885383971498</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.6572153054930764</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.601722384132676</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.7387986779364208</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.7654256163633637</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.6904891802298457</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.7183696721992406</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.6654306428497945</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.7105920748736804</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.6353140797150011</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.7850428809037668</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.7173407736749289</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.6362151044802358</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.732863971911793</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.6284113497468351</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.7527607446972546</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:42">
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>0.7448883629518352</v>
@@ -2595,66 +4116,123 @@
         <v>0.7712351256721499</v>
       </c>
       <c r="E8" t="n">
-        <v>0.587882249894218</v>
+        <v>0.5812328995680578</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6751199879737876</v>
+        <v>0.558409882920046</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5749976504857413</v>
+        <v>0.5779675879335359</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6089737282296011</v>
+        <v>0.6589604795116533</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6126390957688811</v>
+        <v>0.6708841686805679</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7177236474244564</v>
+        <v>0.675862633585213</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5754659323835462</v>
+        <v>0.6014917671008351</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7339458575236231</v>
+        <v>0.7585097991892258</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5801724206900233</v>
+        <v>0.6805268363549489</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6672779431710272</v>
+        <v>0.7591937394529061</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7439539864806506</v>
+        <v>0.6192511447586877</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5756186140421159</v>
+        <v>0.5610861728952981</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5809730625750433</v>
+        <v>0.5802779995379602</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6146140418803062</v>
+        <v>0.5661216692293155</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6269928267730962</v>
+        <v>0.5823592964730312</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7430228376199128</v>
+        <v>0.5631401386861336</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6214198270895678</v>
+        <v>0.6151655090780113</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7175165266973796</v>
+        <v>0.5603893732407526</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6596049576799368</v>
+        <v>0.6203045708937236</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5796047614727895</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.6768095142824306</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.6171766371962986</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.6182363097070475</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.6037162677432657</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.7221339079442859</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.6221034349822501</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.7343764138024041</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.627265692341955</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.6621701008336341</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.7453370203376117</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.6079173296534746</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.6181158333623474</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.6251296137348056</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.6542387133735772</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.7434260474427123</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.6509190272032719</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.7175913295708468</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.6571890615006244</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:42">
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>0.5511059670536976</v>
@@ -2663,66 +4241,123 @@
         <v>0.5777031933482432</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7340375104831993</v>
+        <v>0.7191545574057815</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5578218585206971</v>
+        <v>0.5970445071347907</v>
       </c>
       <c r="G9" t="n">
-        <v>0.666706154989306</v>
+        <v>0.5847163335108028</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6780588859637632</v>
+        <v>0.6699158557114621</v>
       </c>
       <c r="I9" t="n">
-        <v>0.569357081759186</v>
+        <v>0.5729287936595568</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6229450772345388</v>
+        <v>0.5786779166497676</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5981427051455174</v>
+        <v>0.6094080594804526</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5876773984581485</v>
+        <v>0.5863420895845209</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5741833396395917</v>
+        <v>0.6237702154027669</v>
       </c>
       <c r="N9" t="n">
-        <v>0.6238161759368798</v>
+        <v>0.5678656034655731</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5763242580525465</v>
+        <v>0.6000689201644102</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6412808471939935</v>
+        <v>0.5698665126429188</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6313849345255886</v>
+        <v>0.5752291237368253</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5660928661029982</v>
+        <v>0.6080890237713217</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6073470541942688</v>
+        <v>0.575083476525593</v>
       </c>
       <c r="T9" t="n">
-        <v>0.650757337784331</v>
+        <v>0.6329692307335203</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7114021273783511</v>
+        <v>0.5822427892350319</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6746465664863437</v>
+        <v>0.5820862344713696</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5728379604836975</v>
+        <v>0.6638695673964293</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.5762674336764272</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.5912314653259266</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.6670790342719783</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.6810543046419202</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.6106441251647134</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.6285168812553891</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.6274336544162173</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.6105672885303173</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.6176514672587649</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.6267432696395063</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.6206496507633797</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.6409782868664128</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.6425634570009665</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.5897046786273571</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.6311881730708526</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.6519482399486226</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.7151719722551804</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.6857431517168145</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.6059348041010186</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:42">
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>0.5925690359890264</v>
@@ -2731,66 +4366,123 @@
         <v>0.5490544673938645</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6597429980334907</v>
+        <v>0.5683020001940833</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5661094531413497</v>
+        <v>0.7089787026153117</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6970001702863984</v>
+        <v>0.6913602322725997</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6971194851404112</v>
+        <v>0.5734508471462708</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7006658155956073</v>
+        <v>0.6713222140302214</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7028801989352558</v>
+        <v>0.7344869823054524</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6997493470773825</v>
+        <v>0.655053965390352</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7641760515006407</v>
+        <v>0.6095225418818927</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7197720733464259</v>
+        <v>0.7393781252686197</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7535531217506213</v>
+        <v>0.6911199486122348</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5914766164634259</v>
+        <v>0.6290393201683606</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7391054247349786</v>
+        <v>0.5809890356777044</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6626804617076317</v>
+        <v>0.687209624576387</v>
       </c>
       <c r="R10" t="n">
-        <v>0.733485938182983</v>
+        <v>0.6609954456961772</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7381919987772835</v>
+        <v>0.6238379464266796</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7368553264163371</v>
+        <v>0.5637333599898311</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7203808769227933</v>
+        <v>0.5908619131463599</v>
       </c>
       <c r="V10" t="n">
-        <v>0.7418425988002489</v>
+        <v>0.6032878423189578</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5821129526022273</v>
+        <v>0.7315858826214247</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5716418182097897</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.5929555584998447</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.7024140609184603</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.6979522128457506</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.7001103679914269</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.7044356117995689</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.6894260989282984</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.7637002556853694</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.7201938787956226</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.7535814317792997</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.6264560160902805</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.7411028961088505</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.6755761318700448</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.7262257813713948</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.7424553694790058</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.736906366496234</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.7208841370519619</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.7435055281342847</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.621572454880308</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:42">
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>0.6635526179741055</v>
@@ -2799,61 +4491,118 @@
         <v>0.6588084498875597</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5440981122589118</v>
+        <v>0.5651664659734965</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5611048058073489</v>
+        <v>0.5758408259068414</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5697189305186211</v>
+        <v>0.5821846252663657</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7523495160166872</v>
+        <v>0.7017925122517492</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5686538661036096</v>
+        <v>0.5795805133129994</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6388682809447838</v>
+        <v>0.7027613165101777</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6235362618759913</v>
+        <v>0.7128500158473485</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6520879884004452</v>
+        <v>0.5623577019060179</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5649764849576454</v>
+        <v>0.6460311409235211</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7525890429653639</v>
+        <v>0.648326079180873</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5779991301637051</v>
+        <v>0.5732040094364365</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7346385266311382</v>
+        <v>0.5750593782767265</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5781276497488735</v>
+        <v>0.5728968464734409</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5621579649230763</v>
+        <v>0.577484815689793</v>
       </c>
       <c r="S11" t="n">
-        <v>0.600753981051552</v>
+        <v>0.6767792916831128</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7396725686999008</v>
+        <v>0.5606521542102434</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6709737802641156</v>
+        <v>0.5776645244863986</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7847555235285675</v>
+        <v>0.7113054835242845</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5890309689214028</v>
+        <v>0.5728398686642047</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5936538285412233</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.5932970887504021</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.6098794159320114</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.7518224952293285</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.6092297271855419</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.6434759747868496</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.6464468171665653</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.654866672746624</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.6018601816778905</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.7542076459325121</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.6236672376065158</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.7349549772973603</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.6170746188819168</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.5985929774677975</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.6317942850413379</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.7289291119599143</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.6670033403611385</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.7830290059045104</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.5925601140318103</v>
       </c>
     </row>
   </sheetData>

--- a/15/Before_Soc_EEH2.xlsx
+++ b/15/Before_Soc_EEH2.xlsx
@@ -572,124 +572,124 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8375301055479965</v>
+        <v>0.8375301055479314</v>
       </c>
       <c r="D2" t="n">
-        <v>7.274120421712171</v>
+        <v>7.274120421712154</v>
       </c>
       <c r="E2" t="n">
-        <v>26.15877989472641</v>
+        <v>26.15877989472635</v>
       </c>
       <c r="F2" t="n">
-        <v>2.042011556449898</v>
+        <v>2.042011556451193</v>
       </c>
       <c r="G2" t="n">
-        <v>1.014654828263599</v>
+        <v>1.014654828263968</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2569547238917022</v>
+        <v>0.2569547238918732</v>
       </c>
       <c r="I2" t="n">
-        <v>0.371754876701856</v>
+        <v>0.371754876702119</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4648389820263717</v>
+        <v>0.4648389820269296</v>
       </c>
       <c r="K2" t="n">
-        <v>0.497466656106058</v>
+        <v>0.4974666561060617</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2256334399909797</v>
+        <v>0.2256334399916241</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5983847694154276</v>
+        <v>0.5983847694155395</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4866039055489284</v>
+        <v>0.4866039055487283</v>
       </c>
       <c r="O2" t="n">
-        <v>2.123755588509375</v>
+        <v>2.123755588509507</v>
       </c>
       <c r="P2" t="n">
-        <v>1.864274924462756</v>
+        <v>1.864274924462732</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2200467022118563</v>
+        <v>0.2200467022117759</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1238010091011816</v>
+        <v>0.1238010091008416</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4181267188384581</v>
+        <v>0.4181267188388163</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5339774890328426</v>
+        <v>0.5339774890324008</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0950492459246</v>
+        <v>0.09504924592465153</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1912293058571994</v>
+        <v>0.1912293058570821</v>
       </c>
       <c r="W2" t="n">
-        <v>5.932572004466051</v>
+        <v>5.932572004466052</v>
       </c>
       <c r="X2" t="n">
-        <v>6.219814197889153</v>
+        <v>6.219814197888963</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.073654901294971</v>
+        <v>1.073654901294984</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.021430436148405</v>
+        <v>1.021430436148654</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4243104746602535</v>
+        <v>0.42431047466037</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.570900951160762</v>
+        <v>2.57090095116094</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5075789098291147</v>
+        <v>0.5075789098291288</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.142836771244534</v>
+        <v>1.142836771244455</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5745266610457358</v>
+        <v>0.5745266610459047</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5247407994215797</v>
+        <v>0.5247407994216652</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.8523297124257313</v>
+        <v>0.8523297124256672</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.358343633674237</v>
+        <v>1.358343633672892</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.229298987486817</v>
+        <v>1.229298987486827</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.779868336658249</v>
+        <v>0.7798683366583289</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.9147030646680094</v>
+        <v>0.9147030646679395</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.86991700257554</v>
+        <v>2.869917002575486</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.3623438011118258</v>
+        <v>0.3623438011118094</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.623387454711959</v>
+        <v>0.6233874547118736</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.6240979247374873</v>
+        <v>0.6240979247375216</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6812726458796896</v>
+        <v>0.6812726458795036</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -697,124 +697,124 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06502304023662457</v>
+        <v>0.06502304023703569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9488052630762698</v>
+        <v>0.94880526307685</v>
       </c>
       <c r="E3" t="n">
-        <v>1.973758248716875</v>
+        <v>1.973758248717473</v>
       </c>
       <c r="F3" t="n">
-        <v>3.450512970684355</v>
+        <v>3.450512970684441</v>
       </c>
       <c r="G3" t="n">
-        <v>7.797579152979354</v>
+        <v>7.79757915297931</v>
       </c>
       <c r="H3" t="n">
-        <v>2.332330300032533</v>
+        <v>2.332330300032631</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7695000228654731</v>
+        <v>0.7695000228655746</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6954165643880277</v>
+        <v>0.6954165643887164</v>
       </c>
       <c r="K3" t="n">
-        <v>1.407575350292541</v>
+        <v>1.407575350293801</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2210649609296863</v>
+        <v>0.2210649609289858</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1211556808383472</v>
+        <v>0.1211556808385473</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3729831935663627</v>
+        <v>0.3729831935661228</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6710488881428477</v>
+        <v>0.6710488881425206</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1994301833452975</v>
+        <v>0.1994301833450303</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5313692270891633</v>
+        <v>0.5313692270890865</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4909640088765403</v>
+        <v>0.4909640088756683</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2161588818711665</v>
+        <v>0.2161588818712012</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2204919705380982</v>
+        <v>0.2204919705382924</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08905751186324946</v>
+        <v>0.08905751186356699</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2422052203630999</v>
+        <v>0.2422052203636129</v>
       </c>
       <c r="W3" t="n">
-        <v>1.576602297942018</v>
+        <v>1.576602297941341</v>
       </c>
       <c r="X3" t="n">
-        <v>2.119028809961674</v>
+        <v>2.119028809961663</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.005355371422626</v>
+        <v>1.005355371422687</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2474099424744978</v>
+        <v>0.2474099424728627</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2842131028877772</v>
+        <v>0.2842131028878372</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.5028174886796432</v>
+        <v>0.5028174886797516</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2910574957933366</v>
+        <v>0.2910574957933291</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1341592646517601</v>
+        <v>0.134159264651664</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3637354688834077</v>
+        <v>0.3637354688832488</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1795908971628674</v>
+        <v>0.179590897162789</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.2412868564453606</v>
+        <v>0.2412868564453458</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.5217257903472746</v>
+        <v>0.521725790347325</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.5160333883328078</v>
+        <v>0.5160333883332839</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.338018957802779</v>
+        <v>4.338018957802571</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.7695637069716276</v>
+        <v>0.7695637069715942</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.3330602775176584</v>
+        <v>0.3330602775178176</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.220257011044536</v>
+        <v>0.2202570110445379</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.4119141528047875</v>
+        <v>0.4119141528047803</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.2264236816327767</v>
+        <v>0.2264236816327339</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.2828061669966661</v>
+        <v>0.2828061669964296</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -822,124 +822,124 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1107798248642232</v>
+        <v>0.110779824863466</v>
       </c>
       <c r="D4" t="n">
-        <v>0.835862354061063</v>
+        <v>0.8358623540611211</v>
       </c>
       <c r="E4" t="n">
-        <v>1.751918400262984</v>
+        <v>1.751918400262692</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5671528575712498</v>
+        <v>0.5671528575715595</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060823103848191</v>
+        <v>1.060823103847917</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2072456690590909</v>
+        <v>0.2072456690589901</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2178157274474316</v>
+        <v>0.2178157274457928</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2933168057255253</v>
+        <v>0.2933168057255338</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4667978256505042</v>
+        <v>0.4667978256503201</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6328458414620293</v>
+        <v>0.6328458414621663</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1665388655454705</v>
+        <v>0.1665388655454356</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3637657377169206</v>
+        <v>0.3637657377169254</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5786523872890503</v>
+        <v>0.5786523872892715</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08987787168759651</v>
+        <v>0.0898778716878446</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1234450174308731</v>
+        <v>0.1234450174302295</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09660620448759098</v>
+        <v>0.09660620448746859</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09139243759102661</v>
+        <v>0.09139243759123672</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6230250124046811</v>
+        <v>0.6230250124046858</v>
       </c>
       <c r="U4" t="n">
-        <v>3.635573929064527</v>
+        <v>3.635573929064257</v>
       </c>
       <c r="V4" t="n">
-        <v>2.873090535651125</v>
+        <v>2.873090535650903</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8879855630691634</v>
+        <v>0.8879855630695729</v>
       </c>
       <c r="X4" t="n">
-        <v>1.286965026403151</v>
+        <v>1.286965026402823</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4651234451038663</v>
+        <v>0.4651234451039429</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.4393219381503452</v>
+        <v>0.4393219381513865</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1406179841575738</v>
+        <v>0.1406179841580652</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0997959621763138</v>
+        <v>0.09979596217652383</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1135998913059791</v>
+        <v>0.1135998913058233</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1418028088311138</v>
+        <v>0.1418028088301306</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08326368723372025</v>
+        <v>0.08326368723392516</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.248477438414498</v>
+        <v>0.248477438414258</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2196410303260043</v>
+        <v>0.2196410303260874</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.3157601538919769</v>
+        <v>0.3157601538921904</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.1421866279675451</v>
+        <v>0.1421866279679553</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1425014501690416</v>
+        <v>0.1425014501692466</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.1389194305562008</v>
+        <v>0.1389194305553632</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.1031340326718648</v>
+        <v>0.103134032670516</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.372659228332981</v>
+        <v>1.372659228332813</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.2709306582677767</v>
+        <v>0.2709306582683849</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.4088417810628878</v>
+        <v>0.4088417810634041</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.3027319601536891</v>
+        <v>0.302731960153659</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -947,124 +947,124 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08144443302580275</v>
+        <v>0.0814444330261032</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2112586703345777</v>
+        <v>0.2112586703345138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4236940250677518</v>
+        <v>0.4236940250669922</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1129556110695866</v>
+        <v>0.1129556110691396</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2118677711713962</v>
+        <v>0.2118677711714442</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1543335055700379</v>
+        <v>0.1543335055700878</v>
       </c>
       <c r="I5" t="n">
-        <v>2.52829113962004</v>
+        <v>2.528291139621122</v>
       </c>
       <c r="J5" t="n">
-        <v>1.136222037855534</v>
+        <v>1.136222037855722</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2391219961990219</v>
+        <v>0.2391219961990121</v>
       </c>
       <c r="L5" t="n">
-        <v>0.212644868949972</v>
+        <v>0.2126448689502695</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5775657693371754</v>
+        <v>0.5775657693366488</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4189312633632098</v>
+        <v>0.4189312633634005</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2913272937327395</v>
+        <v>0.291327293733111</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2291435970677666</v>
+        <v>0.2291435970678166</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.067215597974011</v>
+        <v>2.067215597973411</v>
       </c>
       <c r="R5" t="n">
-        <v>1.574722305251576</v>
+        <v>1.574722305251839</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09819747652196796</v>
+        <v>0.09819747652254619</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8308500760204595</v>
+        <v>0.8308500760194756</v>
       </c>
       <c r="U5" t="n">
-        <v>1.097448777589822</v>
+        <v>1.097448777588811</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4550384783042155</v>
+        <v>0.455038478304196</v>
       </c>
       <c r="W5" t="n">
-        <v>1.500151534908135</v>
+        <v>1.500151534908346</v>
       </c>
       <c r="X5" t="n">
-        <v>2.207220887535529</v>
+        <v>2.207220887537323</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.904361587391439</v>
+        <v>1.904361587391234</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.18874724456977</v>
+        <v>1.188747244569413</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7573801108164362</v>
+        <v>0.757380110815934</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.542046755536373</v>
+        <v>1.542046755536501</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.09451168236631891</v>
+        <v>0.09451168236630784</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.08832054556638924</v>
+        <v>0.08832054556643537</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1435310532506155</v>
+        <v>0.1435310532506183</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.09645694239724611</v>
+        <v>0.09645694239665899</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.2339748820753866</v>
+        <v>0.2339748820751476</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.2918588804030292</v>
+        <v>0.2918588804029305</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.1516845944330496</v>
+        <v>0.1516845944332438</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1337540932936819</v>
+        <v>0.1337540932936499</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.097746748675492</v>
+        <v>0.09774674867550161</v>
       </c>
       <c r="AL5" t="n">
-        <v>3.00896607995482</v>
+        <v>3.008966079956432</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.130657045391908</v>
+        <v>1.130657045391952</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.228567630077891</v>
+        <v>0.2285676300782812</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.8185325881968336</v>
+        <v>0.8185325881967737</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.1622204034389181</v>
+        <v>0.1622204034385321</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -1072,124 +1072,124 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3185678233746354</v>
+        <v>0.318567823374663</v>
       </c>
       <c r="D6" t="n">
-        <v>4.674607715514807</v>
+        <v>4.674607715515067</v>
       </c>
       <c r="E6" t="n">
-        <v>8.168373508712108</v>
+        <v>8.168373508712339</v>
       </c>
       <c r="F6" t="n">
-        <v>2.691893407583891</v>
+        <v>2.69189340758379</v>
       </c>
       <c r="G6" t="n">
-        <v>9.292950457225723</v>
+        <v>9.292950457225988</v>
       </c>
       <c r="H6" t="n">
-        <v>1.765166619848756</v>
+        <v>1.765166619848747</v>
       </c>
       <c r="I6" t="n">
-        <v>1.40966483935568</v>
+        <v>1.409664839355536</v>
       </c>
       <c r="J6" t="n">
-        <v>5.833323500139311</v>
+        <v>5.833323500139182</v>
       </c>
       <c r="K6" t="n">
-        <v>15.79517552404439</v>
+        <v>15.79517552404422</v>
       </c>
       <c r="L6" t="n">
-        <v>2.085024109123189</v>
+        <v>2.085024109123203</v>
       </c>
       <c r="M6" t="n">
-        <v>0.274882825049409</v>
+        <v>0.2748828250494506</v>
       </c>
       <c r="N6" t="n">
-        <v>1.614229365050012</v>
+        <v>1.614229365050007</v>
       </c>
       <c r="O6" t="n">
-        <v>1.665848931349078</v>
+        <v>1.665848931349155</v>
       </c>
       <c r="P6" t="n">
-        <v>1.577103002579198</v>
+        <v>1.577103002579332</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5495776289907093</v>
+        <v>0.5495776289905925</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9407555410999957</v>
+        <v>0.9407555410999545</v>
       </c>
       <c r="S6" t="n">
-        <v>15.84854962055463</v>
+        <v>15.84854962055475</v>
       </c>
       <c r="T6" t="n">
-        <v>9.310100685116002</v>
+        <v>9.310100685115961</v>
       </c>
       <c r="U6" t="n">
-        <v>12.07969810903427</v>
+        <v>12.07969810903414</v>
       </c>
       <c r="V6" t="n">
-        <v>9.821102022246082</v>
+        <v>9.821102022246102</v>
       </c>
       <c r="W6" t="n">
-        <v>9.821272680489734</v>
+        <v>9.8212726804898</v>
       </c>
       <c r="X6" t="n">
-        <v>22.07668736757209</v>
+        <v>22.07668736757205</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.92139867903145</v>
+        <v>12.92139867903155</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7159458318458826</v>
+        <v>0.7159458318455734</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.138982287334634</v>
+        <v>1.138982287334503</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.249807979238271</v>
+        <v>1.24980797923846</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.522608111546363</v>
+        <v>1.522608111546407</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.685509660947146</v>
+        <v>1.685509660947127</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.866089862950413</v>
+        <v>1.866089862950466</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.729910898156558</v>
+        <v>2.729910898156511</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.057682854876943</v>
+        <v>1.057682854877066</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.431533107761618</v>
+        <v>4.431533107761191</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.201013068957251</v>
+        <v>1.201013068957334</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.216454635493523</v>
+        <v>1.216454635493651</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.6854920982286975</v>
+        <v>0.6854920982287827</v>
       </c>
       <c r="AL6" t="n">
-        <v>8.499064249858455</v>
+        <v>8.499064249858632</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7251516377423418</v>
+        <v>0.7251516377425493</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.603130326187586</v>
+        <v>1.603130326187825</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.074513123714279</v>
+        <v>7.074513123713788</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.386683158422449</v>
+        <v>1.386683158421591</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -1197,124 +1197,124 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05892845641899536</v>
+        <v>0.05892845641844654</v>
       </c>
       <c r="D7" t="n">
-        <v>2.681102305118763</v>
+        <v>2.681102305118787</v>
       </c>
       <c r="E7" t="n">
-        <v>3.862768176571962</v>
+        <v>3.862768176571982</v>
       </c>
       <c r="F7" t="n">
-        <v>1.214963534236851</v>
+        <v>1.214963534236674</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1379887701178932</v>
+        <v>0.1379887701176057</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09143278247431613</v>
+        <v>0.09143278247458089</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1080970943242816</v>
+        <v>0.108097094324288</v>
       </c>
       <c r="J7" t="n">
-        <v>0.367905588466137</v>
+        <v>0.3679055884659832</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2611540579741292</v>
+        <v>0.2611540579744825</v>
       </c>
       <c r="L7" t="n">
         <v>2.022501740084077</v>
       </c>
       <c r="M7" t="n">
-        <v>2.985221345440825</v>
+        <v>2.985221345440835</v>
       </c>
       <c r="N7" t="n">
-        <v>1.726738443428529</v>
+        <v>1.726738443429306</v>
       </c>
       <c r="O7" t="n">
-        <v>2.922962629053764</v>
+        <v>2.922962629052914</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4303966842968359</v>
+        <v>0.4303966842969387</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6671540090219586</v>
+        <v>0.6671540090224781</v>
       </c>
       <c r="R7" t="n">
-        <v>0.542197695075966</v>
+        <v>0.5421976950766381</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05410843937282665</v>
+        <v>0.05410843937306403</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5572367205252109</v>
+        <v>0.5572367205252656</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9232509367512067</v>
+        <v>0.9232509367509499</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2615177371709668</v>
+        <v>0.261517737174471</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4030965398851865</v>
+        <v>0.4030965398850955</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3762448043372084</v>
+        <v>0.3762448043390661</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.325535241509911</v>
+        <v>2.325535241509995</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.09799069995598969</v>
+        <v>0.09799069995655431</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3725015505148445</v>
+        <v>0.3725015505149988</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1282695708903419</v>
+        <v>0.1282695708905184</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1915097347254278</v>
+        <v>0.1915097347251901</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.823750218909137</v>
+        <v>1.82375021890913</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2996139063775341</v>
+        <v>0.2996139063775353</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5833096342810802</v>
+        <v>0.5833096342803831</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2618222712857459</v>
+        <v>0.2618222712858868</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.8506204400363642</v>
+        <v>0.8506204400378358</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.06838936088771748</v>
+        <v>0.06838936088797452</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.07166213148427791</v>
+        <v>0.07166213148452308</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.4659250645788195</v>
+        <v>0.4659250645788789</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.09626934601280927</v>
+        <v>0.09626934601297849</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0695112500838125</v>
+        <v>0.06951125008305192</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.1110412447261566</v>
+        <v>0.1110412447260897</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.09751624511491201</v>
+        <v>0.09751624511493732</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.1300529430221558</v>
+        <v>0.1300529430218317</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -1322,124 +1322,124 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2946394969300086</v>
+        <v>0.2946394969296531</v>
       </c>
       <c r="D8" t="n">
-        <v>2.111371927762123</v>
+        <v>2.111371927762416</v>
       </c>
       <c r="E8" t="n">
-        <v>14.20946114642863</v>
+        <v>14.20946114642892</v>
       </c>
       <c r="F8" t="n">
-        <v>11.11313056025361</v>
+        <v>11.11313056025313</v>
       </c>
       <c r="G8" t="n">
-        <v>35.71772407527421</v>
+        <v>35.7177240752726</v>
       </c>
       <c r="H8" t="n">
-        <v>2.063727266269549</v>
+        <v>2.063727266269905</v>
       </c>
       <c r="I8" t="n">
-        <v>1.042743052210793</v>
+        <v>1.042743052210322</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7830851234528923</v>
+        <v>0.7830851234527304</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8157011843470677</v>
+        <v>0.8157011843477933</v>
       </c>
       <c r="L8" t="n">
-        <v>1.629568146214488</v>
+        <v>1.62956814621451</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9761725931627879</v>
+        <v>0.9761725931628896</v>
       </c>
       <c r="N8" t="n">
-        <v>3.380680911128678</v>
+        <v>3.380680911128595</v>
       </c>
       <c r="O8" t="n">
-        <v>11.62194565584324</v>
+        <v>11.62194565584368</v>
       </c>
       <c r="P8" t="n">
-        <v>8.067645305283706</v>
+        <v>8.067645305283747</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.095779092063681</v>
+        <v>6.095779092062749</v>
       </c>
       <c r="R8" t="n">
-        <v>3.991376267700284</v>
+        <v>3.991376267700427</v>
       </c>
       <c r="S8" t="n">
-        <v>7.995869646592356</v>
+        <v>7.995869646592142</v>
       </c>
       <c r="T8" t="n">
-        <v>6.187118023095692</v>
+        <v>6.187118023096046</v>
       </c>
       <c r="U8" t="n">
-        <v>4.782402975967434</v>
+        <v>4.782402975967499</v>
       </c>
       <c r="V8" t="n">
-        <v>3.691481472925886</v>
+        <v>3.691481472925755</v>
       </c>
       <c r="W8" t="n">
-        <v>12.37976913846646</v>
+        <v>12.37976913846672</v>
       </c>
       <c r="X8" t="n">
-        <v>23.68409046862525</v>
+        <v>23.68409046862594</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.017405676132212</v>
+        <v>1.017405676132029</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.897537784418365</v>
+        <v>3.897537784418398</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.600728294172944</v>
+        <v>2.600728294172968</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.603965369069456</v>
+        <v>4.603965369069667</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.574840774989859</v>
+        <v>1.574840774989699</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.970828477301406</v>
+        <v>1.970828477300854</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.459834930988569</v>
+        <v>1.459834930988625</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.512167299241176</v>
+        <v>6.512167299241193</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.276985162836742</v>
+        <v>1.276985162836769</v>
       </c>
       <c r="AH8" t="n">
-        <v>3.718093496851983</v>
+        <v>3.718093496851512</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.232172381140757</v>
+        <v>6.232172381141068</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3.193316434070705</v>
+        <v>3.193316434070599</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.550567847034798</v>
+        <v>1.550567847034379</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.9109023642812608</v>
+        <v>0.910902364281716</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.145134365890073</v>
+        <v>2.145134365889402</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.19117663802713</v>
+        <v>1.191176638027361</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.725521169718322</v>
+        <v>1.725521169718503</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.8828442191544145</v>
+        <v>0.8828442191547208</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -1447,124 +1447,124 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06314164925355498</v>
+        <v>0.06314164925354498</v>
       </c>
       <c r="D9" t="n">
-        <v>0.202888860344663</v>
+        <v>0.2028888603447309</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0124366583424</v>
+        <v>1.012436658342903</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1760555547798455</v>
+        <v>0.1760555547798464</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2716790965286292</v>
+        <v>0.2716790965288143</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1949271064635474</v>
+        <v>0.1949271064636242</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3056243681851253</v>
+        <v>0.3056243681851796</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1501957572440235</v>
+        <v>0.1501957572440379</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4043060577199458</v>
+        <v>0.4043060577197761</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3342543992362587</v>
+        <v>0.3342543992361592</v>
       </c>
       <c r="M9" t="n">
-        <v>0.333972589691144</v>
+        <v>0.3339725896910654</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2869150561261362</v>
+        <v>0.2869150561261724</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2104898735418227</v>
+        <v>0.2104898735422922</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1819157373796378</v>
+        <v>0.18191573737978</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2613407716240824</v>
+        <v>0.2613407716242938</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2548713100229029</v>
+        <v>0.2548713100230309</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3868853644726997</v>
+        <v>0.3868853644728961</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4275347016827377</v>
+        <v>0.427534701682657</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7298110749576205</v>
+        <v>0.7298110749573409</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2295978624257289</v>
+        <v>0.2295978624256257</v>
       </c>
       <c r="W9" t="n">
-        <v>0.551407035608117</v>
+        <v>0.5514070356085875</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6464896125190478</v>
+        <v>0.6464896125188718</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2315009880586607</v>
+        <v>0.2315009880586078</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1035576268894537</v>
+        <v>0.1035576268895662</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.07655328333045359</v>
+        <v>0.07655328333002034</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1684197069395744</v>
+        <v>0.1684197069393941</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1217318040361985</v>
+        <v>0.1217318040362673</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1785691401048477</v>
+        <v>0.1785691401046958</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.192380902613953</v>
+        <v>0.1923809026140937</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1935343381194661</v>
+        <v>0.1935343381194128</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.066139252106691</v>
+        <v>1.066139252106334</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.156725946089358</v>
+        <v>5.156725946089639</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1113769004089604</v>
+        <v>0.1113769004090125</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.129055423900297</v>
+        <v>0.1290554239004824</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1844340034187934</v>
+        <v>0.1844340034186649</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.2476688914159701</v>
+        <v>0.2476688914160327</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.1329945150029442</v>
+        <v>0.1329945150028793</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.1383267076684823</v>
+        <v>0.1383267076683894</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.2354053434295953</v>
+        <v>0.2354053434295086</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.2017120345758028</v>
+        <v>0.201712034575673</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -1572,124 +1572,124 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1601160806529732</v>
+        <v>0.1601160806530697</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6484358486426968</v>
+        <v>0.6484358486427473</v>
       </c>
       <c r="E10" t="n">
-        <v>1.110298319252299</v>
+        <v>1.110298319252275</v>
       </c>
       <c r="F10" t="n">
-        <v>1.201658691783202</v>
+        <v>1.201658691783505</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8839613317383695</v>
+        <v>0.8839613317382371</v>
       </c>
       <c r="H10" t="n">
-        <v>0.797763338060554</v>
+        <v>0.797763338060463</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5473572388931821</v>
+        <v>0.5473572388933068</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8844945226335902</v>
+        <v>0.8844945226337295</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6734356364780982</v>
+        <v>0.6734356364776507</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8029991317779592</v>
+        <v>0.8029991317776575</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4953733921096897</v>
+        <v>0.4953733921096786</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8237354292289091</v>
+        <v>0.8237354292288297</v>
       </c>
       <c r="O10" t="n">
-        <v>1.230946709251877</v>
+        <v>1.230946709251726</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8561173342831812</v>
+        <v>0.8561173342832108</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6334498354964163</v>
+        <v>0.6334498354959364</v>
       </c>
       <c r="R10" t="n">
-        <v>2.80475860237888</v>
+        <v>2.804758602378956</v>
       </c>
       <c r="S10" t="n">
-        <v>1.098206593860184</v>
+        <v>1.098206593860444</v>
       </c>
       <c r="T10" t="n">
-        <v>1.174597707713239</v>
+        <v>1.174597707713205</v>
       </c>
       <c r="U10" t="n">
-        <v>1.006407736855345</v>
+        <v>1.006407736855798</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9807065366320632</v>
+        <v>0.9807065366320226</v>
       </c>
       <c r="W10" t="n">
-        <v>11.57331943399372</v>
+        <v>11.57331943399333</v>
       </c>
       <c r="X10" t="n">
-        <v>15.88134229380098</v>
+        <v>15.88134229380023</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.224023188305625</v>
+        <v>2.224023188305609</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.946091381886486</v>
+        <v>0.9460913818863866</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.538290110075027</v>
+        <v>1.538290110074788</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6650963693099943</v>
+        <v>0.665096369310072</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7415316422117563</v>
+        <v>0.7415316422117894</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7269901467927421</v>
+        <v>0.7269901467926222</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3879988088858342</v>
+        <v>0.387998808885877</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7887432321929694</v>
+        <v>0.7887432321932021</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.9581132382096043</v>
+        <v>0.9581132382098688</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.172371787447428</v>
+        <v>1.17237178744744</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.5618500050427254</v>
+        <v>0.5618500050427716</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.8491972772865153</v>
+        <v>0.8491972772861721</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5132443056915178</v>
+        <v>0.5132443056915866</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.7584143761307901</v>
+        <v>0.7584143761307606</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.700733414988575</v>
+        <v>0.7007334149885175</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.6463423130799657</v>
+        <v>0.6463423130802142</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.5054260860936286</v>
+        <v>0.5054260860937053</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.134816344626116</v>
+        <v>1.134816344626519</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -1697,124 +1697,124 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06470452190298524</v>
+        <v>0.0647045219032141</v>
       </c>
       <c r="D11" t="n">
-        <v>2.547227743394807</v>
+        <v>2.547227743394729</v>
       </c>
       <c r="E11" t="n">
-        <v>4.406391520729123</v>
+        <v>4.406391520729082</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5133936642872042</v>
+        <v>0.5133936642871972</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3126699927610931</v>
+        <v>0.3126699927611242</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09997948105393194</v>
+        <v>0.09997948105396638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07488996995497967</v>
+        <v>0.07488996995501281</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09422482310736661</v>
+        <v>0.0942248231075213</v>
       </c>
       <c r="K11" t="n">
-        <v>0.666336027103496</v>
+        <v>0.6663360271033032</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5979585963586701</v>
+        <v>0.5979585963586955</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2888200695888627</v>
+        <v>0.2888200695891374</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3992054730772266</v>
+        <v>0.3992054730773846</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6408919634355192</v>
+        <v>0.6408919634351764</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4346261422889355</v>
+        <v>0.4346261422889438</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.521624762107473</v>
+        <v>0.5216247621074525</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2852627711268533</v>
+        <v>0.2852627711267693</v>
       </c>
       <c r="S11" t="n">
-        <v>0.759044878121343</v>
+        <v>0.7590448781211504</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7347993274799464</v>
+        <v>0.7347993274797719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3922145768684966</v>
+        <v>0.3922145768686116</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4977310104781544</v>
+        <v>0.497731010478054</v>
       </c>
       <c r="W11" t="n">
-        <v>3.062201087427312</v>
+        <v>3.062201087427179</v>
       </c>
       <c r="X11" t="n">
-        <v>4.686087779751956</v>
+        <v>4.686087779752528</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.409460150043155</v>
+        <v>1.409460150043108</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3222420115958321</v>
+        <v>0.3222420115956162</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1691574345380553</v>
+        <v>0.1691574345381835</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2609037639790671</v>
+        <v>0.2609037639791169</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.129570643156241</v>
+        <v>0.1295706431562912</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1292405878947052</v>
+        <v>0.1292405878942652</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1722428255697767</v>
+        <v>0.1722428255696372</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.1707022836010669</v>
+        <v>0.1707022836014714</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.2218407550504224</v>
+        <v>0.2218407550503494</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.39677210464273</v>
+        <v>1.396772104642835</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2617609683633494</v>
+        <v>0.2617609683633031</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.3300331737615915</v>
+        <v>0.3300331737615492</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.991301658867605</v>
+        <v>1.991301658867831</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.2594683858863522</v>
+        <v>0.2594683858856391</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.2126664381233852</v>
+        <v>0.2126664381236991</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.08144721408125875</v>
+        <v>0.08144721408150288</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.1825648057420222</v>
+        <v>0.1825648057422856</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.06614427266790728</v>
+        <v>0.06614427266806577</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2026,7 @@
         <v>8.562165548298507</v>
       </c>
       <c r="W2" t="n">
-        <v>1.492453690746756</v>
+        <v>1.481939460874204</v>
       </c>
       <c r="X2" t="n">
         <v>2.777134401931736</v>
@@ -2169,7 +2169,7 @@
         <v>7.198193470559316</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.82287453666517</v>
+        <v>8.820025533816166</v>
       </c>
       <c r="AD3" t="n">
         <v>6.810707442248738</v>
@@ -2270,7 +2270,7 @@
         <v>6.547658981701402</v>
       </c>
       <c r="U4" t="n">
-        <v>4.03808452141591</v>
+        <v>4.060593811905456</v>
       </c>
       <c r="V4" t="n">
         <v>4.324685518669592</v>
@@ -2395,7 +2395,7 @@
         <v>6.513305001024658</v>
       </c>
       <c r="U5" t="n">
-        <v>5.409812899987166</v>
+        <v>5.402644441205805</v>
       </c>
       <c r="V5" t="n">
         <v>7.671656989782652</v>
@@ -2523,7 +2523,7 @@
         <v>4.770344900712084</v>
       </c>
       <c r="V6" t="n">
-        <v>5.158641505401061</v>
+        <v>5.16057657383479</v>
       </c>
       <c r="W6" t="n">
         <v>5.655518739874107</v>
@@ -2725,10 +2725,10 @@
         <v>5.438275741106683</v>
       </c>
       <c r="F8" t="n">
-        <v>2.487868449761456</v>
+        <v>2.486288670930492</v>
       </c>
       <c r="G8" t="n">
-        <v>5.415725465956823</v>
+        <v>5.394369748885787</v>
       </c>
       <c r="H8" t="n">
         <v>7.560499862361523</v>
@@ -2862,7 +2862,7 @@
         <v>7.531603986463909</v>
       </c>
       <c r="J9" t="n">
-        <v>9.421987862894563</v>
+        <v>9.422182211181116</v>
       </c>
       <c r="K9" t="n">
         <v>7.368125219818348</v>
@@ -2934,7 +2934,7 @@
         <v>5.098945943304424</v>
       </c>
       <c r="AH9" t="n">
-        <v>3.017152606079474</v>
+        <v>3.044050085595958</v>
       </c>
       <c r="AI9" t="n">
         <v>9.055809725820886</v>
@@ -2943,7 +2943,7 @@
         <v>8.97986622985446</v>
       </c>
       <c r="AK9" t="n">
-        <v>9.554673266150399</v>
+        <v>9.552673266150398</v>
       </c>
       <c r="AL9" t="n">
         <v>8.237712781941907</v>
@@ -3097,7 +3097,7 @@
         <v>3.552577859442168</v>
       </c>
       <c r="E11" t="n">
-        <v>4.894081181889581</v>
+        <v>4.888979141073254</v>
       </c>
       <c r="F11" t="n">
         <v>6.459240160952525</v>
@@ -3360,124 +3360,124 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7270373607642054</v>
+        <v>0.7270373607636161</v>
       </c>
       <c r="D2" t="n">
-        <v>0.641734425299433</v>
+        <v>0.6417344252988567</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5738070133867507</v>
+        <v>0.5738070133867506</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5538904946602163</v>
+        <v>0.5538904946602128</v>
       </c>
       <c r="G2" t="n">
-        <v>0.567123117475193</v>
+        <v>0.5671231174751933</v>
       </c>
       <c r="H2" t="n">
-        <v>0.752249799785189</v>
+        <v>0.7522497997852466</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5801317965263844</v>
+        <v>0.5801317965263825</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7072166772931361</v>
+        <v>0.7072166772927611</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7286788220805152</v>
+        <v>0.7286788220805791</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6606020930475744</v>
+        <v>0.6606020930471642</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7257192443253232</v>
+        <v>0.7257192443253483</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6094025859437986</v>
+        <v>0.6094025859438483</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6026220795542301</v>
+        <v>0.6026220795542416</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5561419700199105</v>
+        <v>0.5561419700199104</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7846057517626375</v>
+        <v>0.7846057517627888</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6707462291043228</v>
+        <v>0.6707462291057453</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7465908460540003</v>
+        <v>0.7465908460541149</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6937657956363786</v>
+        <v>0.6937657956364613</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6891296776962516</v>
+        <v>0.6891296776992483</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7059065378138891</v>
+        <v>0.705906537814447</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6181670182813761</v>
+        <v>0.6181670182820719</v>
       </c>
       <c r="X2" t="n">
         <v>0.5519953348097888</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6506472735072868</v>
+        <v>0.6506472735072596</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7605101928011462</v>
+        <v>0.7605101928014171</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7331722797148837</v>
+        <v>0.7331722797149002</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7229552155501173</v>
+        <v>0.7229552155499351</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.671827578441074</v>
+        <v>0.6718275784410751</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.7349322377320726</v>
+        <v>0.7349322377320988</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6365096742321343</v>
+        <v>0.6365096742320845</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6472441097651739</v>
+        <v>0.6472441097650529</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6697496103430528</v>
+        <v>0.6697496103430308</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7301757032988818</v>
+        <v>0.7301757032991332</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.6312003991691879</v>
+        <v>0.6312003991692015</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6748494961833346</v>
+        <v>0.6748494961833361</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.612016933655511</v>
+        <v>0.6120169336554993</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.6206821646180323</v>
+        <v>0.6206821646180317</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6626180107585616</v>
+        <v>0.6626180107586629</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7138860687193449</v>
+        <v>0.7138860687194581</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.6283198827497791</v>
+        <v>0.6283198827497735</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6773391306947764</v>
+        <v>0.6773391306947917</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -3485,124 +3485,124 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5955246107310348</v>
+        <v>0.5955246107182629</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6379333211861822</v>
+        <v>0.6379333211849275</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5748816394957976</v>
+        <v>0.5748816394957975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7685480892135569</v>
+        <v>0.7685480892134755</v>
       </c>
       <c r="G3" t="n">
         <v>0.577139653774279</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7895112424147321</v>
+        <v>0.7895112424145793</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5154209498701893</v>
+        <v>0.5154209498700335</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6347202259765214</v>
+        <v>0.6347202259758735</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5806640411356033</v>
+        <v>0.5806640411356027</v>
       </c>
       <c r="L3" t="n">
-        <v>0.566353984896862</v>
+        <v>0.5663539848970897</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5882555756304892</v>
+        <v>0.588255575629004</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5744502749618731</v>
+        <v>0.5744502749586879</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5735345639021103</v>
+        <v>0.573534563902108</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7003454309776271</v>
+        <v>0.7003454309776517</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6940237497739374</v>
+        <v>0.6940237497727062</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5636211169659153</v>
+        <v>0.5636211169659107</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6142201531588241</v>
+        <v>0.6142201531586924</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5670555737399605</v>
+        <v>0.5670555737395112</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6833006991295941</v>
+        <v>0.6833006991276929</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7287449553200893</v>
+        <v>0.7287449553204186</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6748279964709851</v>
+        <v>0.6748279964721315</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5729285881649118</v>
+        <v>0.5729285881649029</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5934812662728781</v>
+        <v>0.5934812662728733</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6213282930021168</v>
+        <v>0.6213282930019323</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7201784605549513</v>
+        <v>0.7201784605547815</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6114843601779996</v>
+        <v>0.6114843601779807</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6711467599567015</v>
+        <v>0.6711467599581675</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6450013238888532</v>
+        <v>0.6450013238896697</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6800248378978196</v>
+        <v>0.6800248378978651</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6231318582400877</v>
+        <v>0.6231318582402336</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6989931379115037</v>
+        <v>0.6989931379132047</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6091735761545999</v>
+        <v>0.6091735761546099</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.7020074680477917</v>
+        <v>0.7020074680492626</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.6218459065881893</v>
+        <v>0.6218459065881938</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6062565331522052</v>
+        <v>0.6062565331521941</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.6782553065644426</v>
+        <v>0.6782553065642704</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.6085556444122994</v>
+        <v>0.6085556444122543</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.6356116399484154</v>
+        <v>0.6356116399484261</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.6669441328044635</v>
+        <v>0.6669441328044319</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.6891417557812947</v>
+        <v>0.6891417557822364</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -3610,124 +3610,124 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6494584528165832</v>
+        <v>0.6494584528166109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5839176214287028</v>
+        <v>0.5839176214376746</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5716908597074492</v>
+        <v>0.5716908597074526</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5861872556529286</v>
+        <v>0.5861872556532706</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5784201469000564</v>
+        <v>0.5784201469000503</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6197339515204932</v>
+        <v>0.6197339515198432</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5752656933926508</v>
+        <v>0.5752656933925104</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6908858833091389</v>
+        <v>0.6908858833042528</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5709668718677905</v>
+        <v>0.5709668718677926</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6555266594731872</v>
+        <v>0.6555266594729534</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5787902482161205</v>
+        <v>0.5787902482166458</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6738425216319258</v>
+        <v>0.6738425216306896</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5739374955414656</v>
+        <v>0.573937495541452</v>
       </c>
       <c r="P4" t="n">
-        <v>0.617923929884872</v>
+        <v>0.6179239298875556</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6689458143877589</v>
+        <v>0.6689458143907805</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6724052833667405</v>
+        <v>0.672405283370205</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6079603841988565</v>
+        <v>0.6079603842022928</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6452085171143469</v>
+        <v>0.645208517116737</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5762565503910966</v>
+        <v>0.5762565503911438</v>
       </c>
       <c r="V4" t="n">
-        <v>0.597285937662853</v>
+        <v>0.5972859376628282</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6478738968226964</v>
+        <v>0.6478738968264256</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5813649085659787</v>
+        <v>0.5813649085659766</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6036550733313395</v>
+        <v>0.6036550733315156</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6254040975362181</v>
+        <v>0.6254040975361917</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6582134750578176</v>
+        <v>0.6582134750575186</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6329969425136421</v>
+        <v>0.6329969425140746</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5975838984802742</v>
+        <v>0.5975838984773552</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6253550154826232</v>
+        <v>0.6253550154833974</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5887516180208424</v>
+        <v>0.5887516180149817</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.636118172398053</v>
+        <v>0.6361181723962769</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6740610226632711</v>
+        <v>0.6740610226654417</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6295162752904609</v>
+        <v>0.6295162752902633</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6111748306071848</v>
+        <v>0.6111748306110147</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.6459916331201623</v>
+        <v>0.6459916331179199</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6488108369387344</v>
+        <v>0.6488108369396921</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6731040107165538</v>
+        <v>0.6731040107226367</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6867835498043754</v>
+        <v>0.6867835498093534</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6292183411086063</v>
+        <v>0.6292183411086552</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.7297035390749206</v>
+        <v>0.7297035390749719</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.628704252202463</v>
+        <v>0.6287042522025027</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -3735,124 +3735,124 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6585844648910064</v>
+        <v>0.6585844648888801</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6212815061046844</v>
+        <v>0.6212815061071987</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5728945082921699</v>
+        <v>0.5728945082921656</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7302614271527301</v>
+        <v>0.7302614271509509</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5822611753495244</v>
+        <v>0.5822611753477589</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5817087273503769</v>
+        <v>0.5817087273496931</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7518878577271551</v>
+        <v>0.7518878577270842</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6687419036012175</v>
+        <v>0.6687419036010458</v>
       </c>
       <c r="K5" t="n">
-        <v>0.584465317395649</v>
+        <v>0.5844653173955238</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7188055938030908</v>
+        <v>0.7188055938028306</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6602548831005721</v>
+        <v>0.6602548831001364</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5584772473031701</v>
+        <v>0.5584772473031331</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6159640081957445</v>
+        <v>0.6159640081959303</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5853230890595537</v>
+        <v>0.5853230890594751</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6005728759677283</v>
+        <v>0.6005728759660932</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5564088217973369</v>
+        <v>0.5564088217973368</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6692236644450971</v>
+        <v>0.6692236644505636</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7253180821064026</v>
+        <v>0.7253180821057583</v>
       </c>
       <c r="U5" t="n">
-        <v>0.569069777274433</v>
+        <v>0.5690697772744345</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5850698492278821</v>
+        <v>0.5850698492278387</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5838445874448112</v>
+        <v>0.5838445874447364</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5894867288643512</v>
+        <v>0.5894867288643123</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5910794006115125</v>
+        <v>0.5910794006115113</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6403242488308499</v>
+        <v>0.6403242488308012</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5967735032287658</v>
+        <v>0.5967735032287539</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.6069692525252386</v>
+        <v>0.6069692525252369</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.6498682933957414</v>
+        <v>0.6498682933934875</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6277817253383007</v>
+        <v>0.6277817253383153</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.7261256567000863</v>
+        <v>0.7261256567002845</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.5997944120875144</v>
+        <v>0.5997944120882512</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7459176680934614</v>
+        <v>0.7459176680935874</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.6058507358424968</v>
+        <v>0.6058507358425382</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6097838691046711</v>
+        <v>0.6097838691045513</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6173949495118632</v>
+        <v>0.6173949495115965</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.6963926461574781</v>
+        <v>0.6963926461591425</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6235603828109765</v>
+        <v>0.6235603828109727</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.7260595846588235</v>
+        <v>0.7260595846588089</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.6348445033403201</v>
+        <v>0.6348445033395964</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.6018993945807172</v>
+        <v>0.6018993945807535</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6628855229665722</v>
+        <v>0.6628855229615807</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -3860,124 +3860,124 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6970892106934101</v>
+        <v>0.6970892106931824</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6362474412391571</v>
+        <v>0.6362474412374155</v>
       </c>
       <c r="E6" t="n">
         <v>0.5631466426828852</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7200779606450896</v>
+        <v>0.7200779606451532</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5823625737373145</v>
+        <v>0.5823625737373149</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7159031632179892</v>
+        <v>0.7159031632179623</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5807970256184295</v>
+        <v>0.5807970256184301</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7129811793274706</v>
+        <v>0.7129811793274611</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5740162090818879</v>
+        <v>0.5740162090818881</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5586155404887353</v>
+        <v>0.5586155404887359</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5898436856525436</v>
+        <v>0.589843685652445</v>
       </c>
       <c r="N6" t="n">
-        <v>0.744549062745365</v>
+        <v>0.7445490627453912</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5715384873679693</v>
+        <v>0.5715384873679691</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7673629098426882</v>
+        <v>0.7673629098427251</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7150017885128892</v>
+        <v>0.7150017885123571</v>
       </c>
       <c r="R6" t="n">
-        <v>0.694507685312059</v>
+        <v>0.6945076853120673</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6828501113755919</v>
+        <v>0.6828501113767503</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5563378954617153</v>
+        <v>0.5563378954617151</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7148790206329477</v>
+        <v>0.7148790206328739</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5563119111850678</v>
+        <v>0.5563119111850674</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6971712883156019</v>
+        <v>0.6971712883155969</v>
       </c>
       <c r="X6" t="n">
         <v>0.5711989536632414</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5912568529368544</v>
+        <v>0.5912568529368546</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7633263075237463</v>
+        <v>0.7633263075236896</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7771066541068403</v>
+        <v>0.7771066541068246</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6019095742334183</v>
+        <v>0.6019095742334188</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7285156601444038</v>
+        <v>0.7285156601444061</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6192255348165088</v>
+        <v>0.6192255348165097</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5973396423906039</v>
+        <v>0.5973396423905942</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6294041809360776</v>
+        <v>0.6294041809360775</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6275129090535138</v>
+        <v>0.6275129090535331</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6336679974545768</v>
+        <v>0.6336679974545721</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.7264925935315191</v>
+        <v>0.7264925935315485</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6337650733302918</v>
+        <v>0.6337650733303032</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.6951569606748005</v>
+        <v>0.6951569606747793</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.6221696945044793</v>
+        <v>0.6221696945044808</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.7096248496237126</v>
+        <v>0.7096248496236786</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7185863555042575</v>
+        <v>0.7185863555037832</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.7006688201429228</v>
+        <v>0.7006688201429279</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6944739458280914</v>
+        <v>0.6944739458281353</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -3985,124 +3985,124 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6135112703727719</v>
+        <v>0.613511270378828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5912944657244764</v>
+        <v>0.5912944657340951</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5589702628106292</v>
+        <v>0.5589702628106296</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7158177105924934</v>
+        <v>0.7158177105925626</v>
       </c>
       <c r="G7" t="n">
-        <v>0.528543325574787</v>
+        <v>0.5285433255745225</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7177741245351237</v>
+        <v>0.71777412453542</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5992827460415733</v>
+        <v>0.5992827460430418</v>
       </c>
       <c r="J7" t="n">
-        <v>0.770189159438263</v>
+        <v>0.7701891594383342</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6524877339580255</v>
+        <v>0.6524877339605291</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5650940041762371</v>
+        <v>0.565094004176238</v>
       </c>
       <c r="M7" t="n">
-        <v>0.57377246608455</v>
+        <v>0.5737724660845499</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7295002905272672</v>
+        <v>0.729500290527501</v>
       </c>
       <c r="O7" t="n">
-        <v>0.566507956976845</v>
+        <v>0.5665079569768444</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5817153812420001</v>
+        <v>0.5817153812421298</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5835837785935925</v>
+        <v>0.5835837785935705</v>
       </c>
       <c r="R7" t="n">
-        <v>0.562114195670857</v>
+        <v>0.5621141956708643</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6484789876022065</v>
+        <v>0.6484789875966829</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7101839732080173</v>
+        <v>0.7101839732078902</v>
       </c>
       <c r="U7" t="n">
-        <v>0.6882045055939707</v>
+        <v>0.6882045056007551</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5558840172178215</v>
+        <v>0.5558840172181122</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7241632957787884</v>
+        <v>0.7241632957787044</v>
       </c>
       <c r="X7" t="n">
-        <v>0.567925524620374</v>
+        <v>0.5679255246203678</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5925240437662644</v>
+        <v>0.5925240437662623</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7159236403477283</v>
+        <v>0.7159236403476547</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.595885383971498</v>
+        <v>0.5958853839715097</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.6572153054930764</v>
+        <v>0.657215305494232</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.601722384132676</v>
+        <v>0.6017223841332984</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.7387986779364208</v>
+        <v>0.7387986779394361</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7654256163633637</v>
+        <v>0.7654256163634239</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.6904891802298457</v>
+        <v>0.6904891802299267</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.7183696721992406</v>
+        <v>0.7183696721998281</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6654306428497945</v>
+        <v>0.6654306428496116</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.7105920748736804</v>
+        <v>0.7105920748757512</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.6353140797150011</v>
+        <v>0.6353140797187594</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.7850428809037668</v>
+        <v>0.7850428809037349</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7173407736749289</v>
+        <v>0.717340773671747</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.6362151044802358</v>
+        <v>0.6362151044819128</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.732863971911793</v>
+        <v>0.7328639719132775</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6284113497468351</v>
+        <v>0.6284113497477607</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.7527607446972546</v>
+        <v>0.7527607446975569</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -4110,124 +4110,124 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7448883629518352</v>
+        <v>0.7448883629516435</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7712351256721499</v>
+        <v>0.7712351256728817</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5812328995680578</v>
+        <v>0.581232899568061</v>
       </c>
       <c r="F8" t="n">
-        <v>0.558409882920046</v>
+        <v>0.5584098829200465</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5779675879335359</v>
+        <v>0.577967587933536</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6589604795116533</v>
+        <v>0.6589604795116581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6708841686805679</v>
+        <v>0.6708841686808216</v>
       </c>
       <c r="J8" t="n">
-        <v>0.675862633585213</v>
+        <v>0.6758626335850999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6014917671008351</v>
+        <v>0.6014917671006877</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7585097991892258</v>
+        <v>0.758509799189257</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6805268363549489</v>
+        <v>0.6805268363552287</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7591937394529061</v>
+        <v>0.7591937394529146</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6192511447586877</v>
+        <v>0.6192511447586998</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5610861728952981</v>
+        <v>0.5610861728952978</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5802779995379602</v>
+        <v>0.5802779995379662</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5661216692293155</v>
+        <v>0.5661216692293147</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5823592964730312</v>
+        <v>0.5823592964730202</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5631401386861336</v>
+        <v>0.5631401386861337</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6151655090780113</v>
+        <v>0.6151655090780715</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5603893732407526</v>
+        <v>0.5603893732407524</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6203045708937236</v>
+        <v>0.6203045708936935</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5796047614727895</v>
+        <v>0.5796047614727896</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6768095142824306</v>
+        <v>0.676809514282558</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6171766371962986</v>
+        <v>0.6171766371962926</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6182363097070475</v>
+        <v>0.6182363097070451</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.6037162677432657</v>
+        <v>0.6037162677431405</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7221339079442859</v>
+        <v>0.7221339079443551</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6221034349822501</v>
+        <v>0.6221034349822586</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.7343764138024041</v>
+        <v>0.7343764138023845</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.627265692341955</v>
+        <v>0.6272656923419569</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.6621701008336341</v>
+        <v>0.6621701008336759</v>
       </c>
       <c r="AH8" t="n">
         <v>0.7453370203376117</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6079173296534746</v>
+        <v>0.6079173296534734</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.6181158333623474</v>
+        <v>0.6181158333623666</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.6251296137348056</v>
+        <v>0.6251296137347582</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6542387133735772</v>
+        <v>0.6542387133735142</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.7434260474427123</v>
+        <v>0.7434260474427098</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6509190272032719</v>
+        <v>0.6509190272033012</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.7175913295708468</v>
+        <v>0.7175913295709641</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.6571890615006244</v>
+        <v>0.6571890615004948</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -4235,124 +4235,124 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5511059670536976</v>
+        <v>0.5511059670549885</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5777031933482432</v>
+        <v>0.5777031933487525</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7191545574057815</v>
+        <v>0.7191545574056928</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5970445071347907</v>
+        <v>0.5970445071343838</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5847163335108028</v>
+        <v>0.5847163335107278</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6699158557114621</v>
+        <v>0.6699158557105372</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5729287936595568</v>
+        <v>0.5729287936595773</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5786779166497676</v>
+        <v>0.5786779166509928</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6094080594804526</v>
+        <v>0.6094080594811011</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5863420895845209</v>
+        <v>0.586342089584788</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6237702154027669</v>
+        <v>0.6237702154034559</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5678656034655731</v>
+        <v>0.5678656034654702</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6000689201644102</v>
+        <v>0.6000689201643764</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5698665126429188</v>
+        <v>0.5698665126431078</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5752291237368253</v>
+        <v>0.5752291237368257</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6080890237713217</v>
+        <v>0.6080890237713801</v>
       </c>
       <c r="S9" t="n">
-        <v>0.575083476525593</v>
+        <v>0.5750834765256471</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6329692307335203</v>
+        <v>0.632969230733456</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5822427892350319</v>
+        <v>0.5822427892350267</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5820862344713696</v>
+        <v>0.5820862344714375</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6638695673964293</v>
+        <v>0.6638695673959293</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5762674336764272</v>
+        <v>0.5762674336763248</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5912314653259266</v>
+        <v>0.5912314653258974</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6670790342719783</v>
+        <v>0.6670790342714816</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.6810543046419202</v>
+        <v>0.6810543046458251</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.6106441251647134</v>
+        <v>0.6106441251646564</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6285168812553891</v>
+        <v>0.6285168812556827</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6274336544162173</v>
+        <v>0.6274336544152067</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6105672885303173</v>
+        <v>0.6105672885301193</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6176514672587649</v>
+        <v>0.6176514672587955</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6267432696395063</v>
+        <v>0.6267432696396712</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.6206496507633797</v>
+        <v>0.6206496507633762</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.6409782868664128</v>
+        <v>0.6409782868675512</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6425634570009665</v>
+        <v>0.6425634569991898</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.5897046786273571</v>
+        <v>0.589704678627447</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6311881730708526</v>
+        <v>0.6311881730705967</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.6519482399486226</v>
+        <v>0.6519482399492874</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7151719722551804</v>
+        <v>0.7151719722551261</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.6857431517168145</v>
+        <v>0.6857431517167998</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.6059348041010186</v>
+        <v>0.6059348041010122</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -4360,124 +4360,124 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5925690359890264</v>
+        <v>0.5925690359862185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5490544673938645</v>
+        <v>0.5490544673942478</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5683020001940833</v>
+        <v>0.5683020001940867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7089787026153117</v>
+        <v>0.7089787026152732</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6913602322725997</v>
+        <v>0.691360232272559</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5734508471462708</v>
+        <v>0.5734508471463444</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6713222140302214</v>
+        <v>0.6713222140301413</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7344869823054524</v>
+        <v>0.7344869823054155</v>
       </c>
       <c r="K10" t="n">
-        <v>0.655053965390352</v>
+        <v>0.6550539653919999</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6095225418818927</v>
+        <v>0.6095225418819641</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7393781252686197</v>
+        <v>0.7393781252686301</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6911199486122348</v>
+        <v>0.6911199486122892</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6290393201683606</v>
+        <v>0.6290393201684417</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5809890356777044</v>
+        <v>0.5809890356776721</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.687209624576387</v>
+        <v>0.6872096245770426</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6609954456961772</v>
+        <v>0.6609954456961292</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6238379464266796</v>
+        <v>0.6238379464266388</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5637333599898311</v>
+        <v>0.5637333599898282</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5908619131463599</v>
+        <v>0.5908619131463614</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6032878423189578</v>
+        <v>0.6032878423189909</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7315858826214247</v>
+        <v>0.7315858826213631</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5716418182097897</v>
+        <v>0.5716418182097893</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5929555584998447</v>
+        <v>0.5929555584998415</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7024140609184603</v>
+        <v>0.7024140609184335</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6979522128457506</v>
+        <v>0.6979522128456952</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.7001103679914269</v>
+        <v>0.7001103679916064</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7044356117995689</v>
+        <v>0.7044356117994438</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.6894260989282984</v>
+        <v>0.6894260989284207</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7637002556853694</v>
+        <v>0.7637002556854687</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.7201938787956226</v>
+        <v>0.7201938787956752</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.7535814317792997</v>
+        <v>0.753581431779309</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.6264560160902805</v>
+        <v>0.6264560160902752</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.7411028961088505</v>
+        <v>0.7411028961088439</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.6755761318700448</v>
+        <v>0.6755761318700693</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.7262257813713948</v>
+        <v>0.7262257813717614</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.7424553694790058</v>
+        <v>0.7424553694793072</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.736906366496234</v>
+        <v>0.7369063664962329</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.7208841370519619</v>
+        <v>0.7208841370521084</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.7435055281342847</v>
+        <v>0.7435055281342755</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.621572454880308</v>
+        <v>0.6215724548802789</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -4485,124 +4485,124 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6635526179741055</v>
+        <v>0.6635526179749169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6588084498875597</v>
+        <v>0.6588084498886216</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5651664659734965</v>
+        <v>0.5651664659734964</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5758408259068414</v>
+        <v>0.5758408259068796</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5821846252663657</v>
+        <v>0.5821846252664172</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7017925122517492</v>
+        <v>0.701792512251899</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5795805133129994</v>
+        <v>0.5795805133119322</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7027613165101777</v>
+        <v>0.7027613165101426</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7128500158473485</v>
+        <v>0.7128500158491915</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5623577019060179</v>
+        <v>0.5623577019060173</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6460311409235211</v>
+        <v>0.6460311409238169</v>
       </c>
       <c r="N11" t="n">
-        <v>0.648326079180873</v>
+        <v>0.6483260791800799</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5732040094364365</v>
+        <v>0.5732040094364251</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5750593782767265</v>
+        <v>0.5750593782767465</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5728968464734409</v>
+        <v>0.5728968464734646</v>
       </c>
       <c r="R11" t="n">
-        <v>0.577484815689793</v>
+        <v>0.5774848156895265</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6767792916831128</v>
+        <v>0.6767792916839077</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5606521542102434</v>
+        <v>0.5606521542102437</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5776645244863986</v>
+        <v>0.5776645244863892</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7113054835242845</v>
+        <v>0.7113054835239827</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5728398686642047</v>
+        <v>0.5728398686642073</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5936538285412233</v>
+        <v>0.5936538285412464</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5932970887504021</v>
+        <v>0.5932970887503989</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6098794159320114</v>
+        <v>0.6098794159320325</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7518224952293285</v>
+        <v>0.7518224952292285</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.6092297271855419</v>
+        <v>0.6092297271855597</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6434759747868496</v>
+        <v>0.6434759747882643</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6464468171665653</v>
+        <v>0.646446817167373</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.654866672746624</v>
+        <v>0.6548666727472261</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6018601816778905</v>
+        <v>0.6018601816774374</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7542076459325121</v>
+        <v>0.7542076459323613</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6236672376065158</v>
+        <v>0.6236672376065283</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.7349549772973603</v>
+        <v>0.7349549772974944</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.6170746188819168</v>
+        <v>0.6170746188818997</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.5985929774677975</v>
+        <v>0.5985929774677973</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.6317942850413379</v>
+        <v>0.6317942850412543</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7289291119599143</v>
+        <v>0.728929111959481</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.6670033403611385</v>
+        <v>0.6670033403572589</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.7830290059045104</v>
+        <v>0.7830290059036223</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5925601140318103</v>
+        <v>0.5925601140307403</v>
       </c>
     </row>
   </sheetData>
